--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_12.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>356565.6193255578</v>
+        <v>358926.5066844978</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11465356.14162199</v>
+        <v>11821355.91763806</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>9814017.51043731</v>
+        <v>10162932.89091067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6552069.298628235</v>
+        <v>6379966.271465395</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>96.29686212182244</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>396.9273063213908</v>
+        <v>388.3430365919143</v>
       </c>
     </row>
     <row r="3">
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868346</v>
+        <v>106.9101097868341</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -826,16 +828,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>106.9706214097032</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -877,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.4883416251229</v>
+        <v>65.31383608752321</v>
       </c>
     </row>
     <row r="5">
@@ -899,10 +901,10 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -950,19 +952,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>6.628923455408407</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>182.8324427122826</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>98.94574135710867</v>
       </c>
       <c r="D7" t="n">
         <v>157.8996982303191</v>
@@ -1066,7 +1068,7 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
         <v>148.1113806425979</v>
@@ -1102,22 +1104,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>173.9653392276467</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>388.3430365919147</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1187,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>56.92670819126101</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1230,7 +1232,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I9" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>19.41765380452741</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
         <v>159.3017069803637</v>
@@ -1303,10 +1305,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1339,16 +1341,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1357,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>165.4216953850578</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>393.9470907639073</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1421,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>19.89843046228975</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -1573,13 +1575,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>228.2601210751802</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
@@ -1591,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,22 +1606,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>257.535140038336</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>416.8201079258493</v>
+        <v>399.0441766499191</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1655,16 +1657,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596193</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,25 +1767,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>129.9555967672231</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,22 +1815,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U16" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>180.6077930059085</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1841,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>286.2137375321901</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>386.8650699901663</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1895,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="18">
@@ -2005,16 +2007,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2050,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>81.2633235416082</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2062,13 +2064,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>213.5952110672383</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>101.4378692982586</v>
+        <v>340.8361638445465</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>96.8381735475137</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2318,13 +2320,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
@@ -2375,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>126.5427015793254</v>
+        <v>110.7221165774625</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2476,10 +2478,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>42.43741174507633</v>
       </c>
       <c r="D25" t="n">
-        <v>155.2241850401431</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2558,19 +2560,19 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>35.29793732796495</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2609,19 +2611,19 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>232.0770821501329</v>
       </c>
       <c r="W26" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2716,13 +2718,13 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>81.32470272170745</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>13.69035470554302</v>
       </c>
       <c r="G28" t="n">
         <v>165.577887163712</v>
@@ -2764,16 +2766,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
@@ -2789,13 +2791,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>393.9470907639073</v>
+        <v>388.3430365919143</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>410.1968133282722</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>70.53515544202655</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>65.42520756919141</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
         <v>115.1825854367171</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
         <v>406.0233447798626</v>
@@ -3035,16 +3037,16 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3086,16 +3088,16 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>346.3391791168841</v>
+        <v>112.5183086716006</v>
       </c>
       <c r="W32" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>66.72216088494372</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="33">
@@ -3156,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868343</v>
+        <v>106.9101097868341</v>
       </c>
       <c r="T33" t="n">
         <v>157.7484451748619</v>
@@ -3184,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>164.5175082466435</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
@@ -3205,7 +3207,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,16 +3246,16 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>142.5359303380062</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3269,16 +3271,16 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>19.89843046229006</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>386.8650699901659</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3329,10 +3331,10 @@
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,22 +3474,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>184.5278504388888</v>
+        <v>165.4216953850584</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>180.6077930059088</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -3503,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>12.64204939395773</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3551,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>294.7228925766556</v>
       </c>
     </row>
     <row r="39">
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>53.92978098120648</v>
       </c>
       <c r="D40" t="n">
-        <v>7.095411472261368</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
         <v>159.3017069803637</v>
@@ -3679,7 +3681,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3737,16 +3739,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>406.1189678678446</v>
+        <v>198.3987443462406</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>19.89843046229006</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3755,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3797,10 +3799,10 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
         <v>396.636963852737</v>
@@ -3837,7 +3839,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I42" t="n">
-        <v>20.54110546596236</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>62.02471929069477</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3910,13 +3912,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -3961,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3986,10 +3988,10 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>390.1527797502169</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>123.6621491913813</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4025,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>219.9844192126098</v>
+        <v>117.7800054678745</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>390.1527797502169</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>390.1527797502169</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -4059,22 +4061,22 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D45" t="n">
-        <v>115.2362158969391</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H45" t="n">
         <v>70.03974083464111</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4122,7 +4124,7 @@
         <v>174.5627220424961</v>
       </c>
       <c r="Y45" t="n">
-        <v>0</v>
+        <v>157.8079400398083</v>
       </c>
     </row>
     <row r="46">
@@ -4132,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V46" t="n">
-        <v>266.2723283900672</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -4201,7 +4203,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
   </sheetData>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>446.2290155365415</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C2" t="n">
-        <v>446.2290155365415</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D2" t="n">
-        <v>41.76508562960205</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="E2" t="n">
-        <v>41.76508562960205</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F2" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M2" t="n">
-        <v>558.6080202959273</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N2" t="n">
-        <v>1075.450954962253</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O2" t="n">
-        <v>1209.69369432892</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4361,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1990.984723781292</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1641.147169117772</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W2" t="n">
-        <v>1257.386868252941</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X2" t="n">
-        <v>1257.386868252941</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y2" t="n">
-        <v>856.450195201031</v>
+        <v>1695.988587952916</v>
       </c>
     </row>
     <row r="3">
@@ -4401,31 +4403,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J3" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K3" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>751.4208778585605</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M3" t="n">
-        <v>1025.008892784822</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4462,34 +4464,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>641.31505061373</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C4" t="n">
-        <v>470.2216781754465</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D4" t="n">
-        <v>310.7270334983565</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E4" t="n">
-        <v>149.816218366676</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F4" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G4" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L4" t="n">
         <v>470.2970630371111</v>
@@ -4513,25 +4515,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="U4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="V4" t="n">
-        <v>1571.163982250452</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="W4" t="n">
-        <v>1292.094317759326</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="X4" t="n">
-        <v>1053.75045561901</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="Y4" t="n">
-        <v>829.0147570077744</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="5">
@@ -4541,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1270.693821706375</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C5" t="n">
-        <v>860.5692310196448</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D5" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J5" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K5" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="L5" t="n">
-        <v>1209.69369432892</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M5" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N5" t="n">
-        <v>1209.69369432892</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O5" t="n">
-        <v>1209.69369432892</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P5" t="n">
-        <v>1726.536628995245</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4598,19 +4600,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W5" t="n">
-        <v>2081.558399201912</v>
+        <v>1447.433488874781</v>
       </c>
       <c r="X5" t="n">
-        <v>1680.915001370864</v>
+        <v>1046.790091043733</v>
       </c>
       <c r="Y5" t="n">
-        <v>1680.915001370864</v>
+        <v>862.1108559808214</v>
       </c>
     </row>
     <row r="6">
@@ -4620,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G6" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J6" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K6" t="n">
-        <v>690.384199457534</v>
+        <v>497.5713418949007</v>
       </c>
       <c r="L6" t="n">
-        <v>1192.007362767164</v>
+        <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1192.007362767164</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="N6" t="n">
-        <v>1708.850297433489</v>
+        <v>1531.257211227551</v>
       </c>
       <c r="O6" t="n">
-        <v>1708.850297433489</v>
+        <v>2048.100145893876</v>
       </c>
       <c r="P6" t="n">
-        <v>1708.850297433489</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q6" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4677,19 +4679,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="7">
@@ -4699,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>792.7551724179984</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="C7" t="n">
-        <v>792.7551724179984</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D7" t="n">
-        <v>633.2605277409085</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E7" t="n">
-        <v>472.349712609228</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F7" t="n">
-        <v>307.7185867198193</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H7" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4750,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U7" t="n">
-        <v>1310.168699049441</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="V7" t="n">
-        <v>1310.168699049441</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="W7" t="n">
-        <v>1031.099034558315</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="X7" t="n">
-        <v>792.7551724179984</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="Y7" t="n">
-        <v>792.7551724179984</v>
+        <v>1059.950756782464</v>
       </c>
     </row>
     <row r="8">
@@ -4778,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1695.988587952916</v>
+        <v>1270.693821706375</v>
       </c>
       <c r="C8" t="n">
-        <v>1285.863997266186</v>
+        <v>860.5692310196448</v>
       </c>
       <c r="D8" t="n">
-        <v>1285.863997266186</v>
+        <v>456.1053011127053</v>
       </c>
       <c r="E8" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F8" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J8" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L8" t="n">
         <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N8" t="n">
         <v>1530.854701124212</v>
       </c>
       <c r="O8" t="n">
-        <v>2047.697635790537</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P8" t="n">
         <v>2047.697635790537</v>
@@ -4835,19 +4837,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U8" t="n">
-        <v>2088.254281480102</v>
+        <v>2030.752556034384</v>
       </c>
       <c r="V8" t="n">
-        <v>2088.254281480102</v>
+        <v>1680.915001370864</v>
       </c>
       <c r="W8" t="n">
-        <v>2088.254281480102</v>
+        <v>1680.915001370864</v>
       </c>
       <c r="X8" t="n">
-        <v>2088.254281480102</v>
+        <v>1680.915001370864</v>
       </c>
       <c r="Y8" t="n">
-        <v>2088.254281480102</v>
+        <v>1680.915001370864</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J9" t="n">
         <v>234.5779431922353</v>
@@ -4887,19 +4889,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>1192.007362767164</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1192.007362767164</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
         <v>2058.694762117472</v>
@@ -4917,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4936,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>503.2668642681101</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>503.2668642681101</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>483.6530725463652</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>322.7422574146847</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4987,25 +4989,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="W10" t="n">
-        <v>503.2668642681101</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="X10" t="n">
-        <v>503.2668642681101</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="Y10" t="n">
-        <v>503.2668642681101</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5015,49 +5017,49 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2088.254281480102</v>
+        <v>856.3536062232714</v>
       </c>
       <c r="C11" t="n">
-        <v>1690.327927173125</v>
+        <v>446.2290155365415</v>
       </c>
       <c r="D11" t="n">
-        <v>1285.863997266186</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E11" t="n">
-        <v>871.5237817830823</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F11" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J11" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K11" t="n">
-        <v>812.7934917636817</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L11" t="n">
-        <v>1329.636426430007</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M11" t="n">
-        <v>1846.479361096332</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="N11" t="n">
-        <v>1846.479361096332</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O11" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P11" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q11" t="n">
         <v>2047.697635790537</v>
@@ -5069,22 +5071,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="U11" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="V11" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="W11" t="n">
-        <v>2088.254281480102</v>
+        <v>2068.154856770718</v>
       </c>
       <c r="X11" t="n">
-        <v>2088.254281480102</v>
+        <v>1667.511458939671</v>
       </c>
       <c r="Y11" t="n">
-        <v>2088.254281480102</v>
+        <v>1266.574785887761</v>
       </c>
     </row>
     <row r="12">
@@ -5115,31 +5117,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K12" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L12" t="n">
-        <v>558.6080202959273</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M12" t="n">
-        <v>558.6080202959273</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="N12" t="n">
-        <v>1075.450954962253</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O12" t="n">
-        <v>1592.293889628578</v>
+        <v>1541.851827451147</v>
       </c>
       <c r="P12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q12" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R12" t="n">
         <v>2088.254281480102</v>
@@ -5173,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5221,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S13" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T13" t="n">
-        <v>1340.598203386633</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U13" t="n">
-        <v>1057.800055932758</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V13" t="n">
-        <v>783.9143108722797</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W13" t="n">
-        <v>504.844646381154</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X13" t="n">
-        <v>266.5007842408373</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>722.9320027651428</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C14" t="n">
-        <v>722.9320027651428</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D14" t="n">
-        <v>722.9320027651428</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="E14" t="n">
-        <v>462.7954976759145</v>
+        <v>853.568295645779</v>
       </c>
       <c r="F14" t="n">
-        <v>41.76508562960205</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J14" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K14" t="n">
-        <v>812.7934917636817</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L14" t="n">
-        <v>812.7934917636817</v>
+        <v>497.1688317915614</v>
       </c>
       <c r="M14" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N14" t="n">
-        <v>812.7934917636817</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O14" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P14" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q14" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T14" t="n">
-        <v>1730.766722221062</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U14" t="n">
-        <v>1473.706230480572</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V14" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W14" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X14" t="n">
-        <v>1123.868675817053</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y14" t="n">
-        <v>722.9320027651428</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161362</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650818</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844742</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768022</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593068</v>
       </c>
       <c r="G15" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736455</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936156</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J15" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M15" t="n">
-        <v>558.6080202959273</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N15" t="n">
-        <v>704.7239474634683</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O15" t="n">
-        <v>1221.566882129794</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="P15" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q15" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5388,19 +5390,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919638</v>
+        <v>1623.571596919637</v>
       </c>
       <c r="V15" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W15" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X15" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517228</v>
       </c>
     </row>
     <row r="16">
@@ -5410,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>924.02345198085</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C16" t="n">
-        <v>792.7551724179984</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D16" t="n">
-        <v>633.2605277409085</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E16" t="n">
-        <v>472.349712609228</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G16" t="n">
-        <v>307.7185867198193</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H16" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5461,25 +5463,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1485.891263925851</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T16" t="n">
-        <v>1485.891263925851</v>
+        <v>1059.950756782464</v>
       </c>
       <c r="U16" t="n">
-        <v>1203.093116471976</v>
+        <v>777.1526093285881</v>
       </c>
       <c r="V16" t="n">
-        <v>1203.093116471976</v>
+        <v>503.2668642681101</v>
       </c>
       <c r="W16" t="n">
-        <v>924.02345198085</v>
+        <v>224.1971997769844</v>
       </c>
       <c r="X16" t="n">
-        <v>924.02345198085</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="Y16" t="n">
-        <v>924.02345198085</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1678.033101815613</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C17" t="n">
-        <v>1267.908511128883</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D17" t="n">
-        <v>877.1357131590178</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E17" t="n">
-        <v>462.7954976759145</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J17" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>216.5644706858345</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L17" t="n">
-        <v>216.5644706858345</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M17" t="n">
-        <v>216.5644706858345</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="N17" t="n">
-        <v>733.4074053521598</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O17" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P17" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q17" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5543,22 +5545,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U17" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V17" t="n">
-        <v>2088.254281480102</v>
+        <v>1516.210242763441</v>
       </c>
       <c r="W17" t="n">
-        <v>2088.254281480102</v>
+        <v>1132.44994189861</v>
       </c>
       <c r="X17" t="n">
-        <v>2088.254281480102</v>
+        <v>731.8065440675625</v>
       </c>
       <c r="Y17" t="n">
-        <v>2088.254281480102</v>
+        <v>330.8698710156526</v>
       </c>
     </row>
     <row r="18">
@@ -5586,28 +5588,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J18" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K18" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>41.76508562960205</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M18" t="n">
-        <v>558.6080202959273</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N18" t="n">
-        <v>1054.568412147451</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O18" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P18" t="n">
         <v>2088.254281480102</v>
@@ -5647,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>41.76508562960205</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="C19" t="n">
-        <v>41.76508562960205</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="D19" t="n">
-        <v>41.76508562960205</v>
+        <v>534.5574177251478</v>
       </c>
       <c r="E19" t="n">
-        <v>41.76508562960205</v>
+        <v>373.6466025934674</v>
       </c>
       <c r="F19" t="n">
-        <v>41.76508562960205</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5698,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1571.163982250452</v>
+        <v>1489.079817056908</v>
       </c>
       <c r="T19" t="n">
-        <v>1331.615243227154</v>
+        <v>1489.079817056908</v>
       </c>
       <c r="U19" t="n">
-        <v>1048.817095773278</v>
+        <v>1206.281669603032</v>
       </c>
       <c r="V19" t="n">
-        <v>774.9313507128002</v>
+        <v>932.3959245425544</v>
       </c>
       <c r="W19" t="n">
-        <v>495.8616862216745</v>
+        <v>932.3959245425544</v>
       </c>
       <c r="X19" t="n">
-        <v>257.5178240813579</v>
+        <v>694.0520624022379</v>
       </c>
       <c r="Y19" t="n">
-        <v>41.76508562960205</v>
+        <v>694.0520624022379</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1804.739591242937</v>
+        <v>696.9525363802138</v>
       </c>
       <c r="C20" t="n">
-        <v>1394.615000556207</v>
+        <v>696.9525363802138</v>
       </c>
       <c r="D20" t="n">
-        <v>990.1510706492677</v>
+        <v>696.9525363802138</v>
       </c>
       <c r="E20" t="n">
-        <v>575.8108551661644</v>
+        <v>696.9525363802138</v>
       </c>
       <c r="F20" t="n">
-        <v>154.780443119852</v>
+        <v>696.9525363802138</v>
       </c>
       <c r="G20" t="n">
-        <v>52.31794887918674</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J20" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K20" t="n">
-        <v>590.4774499882262</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L20" t="n">
-        <v>1121.948882827788</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M20" t="n">
-        <v>1121.948882827788</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N20" t="n">
-        <v>1121.948882827788</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O20" t="n">
-        <v>1765.579739244893</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="P20" t="n">
-        <v>2294.736437164045</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T20" t="n">
-        <v>2615.897443959337</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U20" t="n">
-        <v>2615.897443959337</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V20" t="n">
-        <v>2615.897443959337</v>
+        <v>1481.356235076093</v>
       </c>
       <c r="W20" t="n">
-        <v>2615.897443959337</v>
+        <v>1097.595934211261</v>
       </c>
       <c r="X20" t="n">
-        <v>2615.897443959337</v>
+        <v>696.9525363802138</v>
       </c>
       <c r="Y20" t="n">
-        <v>2214.960770907427</v>
+        <v>696.9525363802138</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>731.1487907657211</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C21" t="n">
-        <v>597.1537195146668</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D21" t="n">
-        <v>480.2565617340592</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E21" t="n">
-        <v>359.7637457263872</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F21" t="n">
-        <v>250.8038659088918</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G21" t="n">
-        <v>143.8137532232305</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H21" t="n">
-        <v>73.06654025894656</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L21" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M21" t="n">
-        <v>52.31794887918674</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N21" t="n">
-        <v>699.7525662591225</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O21" t="n">
-        <v>1347.187183639058</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P21" t="n">
-        <v>1908.893076127588</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R21" t="n">
-        <v>2098.807144729687</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S21" t="n">
-        <v>1990.817134843996</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T21" t="n">
-        <v>1831.475271031004</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U21" t="n">
-        <v>1634.124460169222</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1420.412933162256</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W21" t="n">
-        <v>1207.179764898585</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X21" t="n">
-        <v>1030.853783037478</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>871.4518234013077</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>321.2276582341507</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C22" t="n">
-        <v>150.1342857958672</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D22" t="n">
-        <v>150.1342857958672</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E22" t="n">
-        <v>150.1342857958672</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F22" t="n">
-        <v>150.1342857958672</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G22" t="n">
-        <v>52.31794887918674</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H22" t="n">
-        <v>52.31794887918674</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I22" t="n">
-        <v>52.31794887918674</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J22" t="n">
-        <v>66.40049828439726</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K22" t="n">
-        <v>220.9528260066352</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L22" t="n">
-        <v>480.8499262866958</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M22" t="n">
-        <v>770.1139827271891</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N22" t="n">
-        <v>1050.952765121439</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O22" t="n">
-        <v>1310.513375447913</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P22" t="n">
-        <v>1516.188815697526</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R22" t="n">
-        <v>1581.716845500037</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S22" t="n">
-        <v>1395.325077379947</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1395.325077379947</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U22" t="n">
-        <v>1112.526929926071</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V22" t="n">
-        <v>838.641184865593</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W22" t="n">
-        <v>559.5715203744674</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X22" t="n">
-        <v>321.2276582341507</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y22" t="n">
-        <v>321.2276582341507</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2453.126100861739</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="C23" t="n">
-        <v>2043.001510175009</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="D23" t="n">
-        <v>1638.53758026807</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="E23" t="n">
-        <v>1224.197364784966</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F23" t="n">
-        <v>803.1669527386539</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G23" t="n">
-        <v>394.4386686314861</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I23" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J23" t="n">
-        <v>83.5301712592041</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>621.6896723682436</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L23" t="n">
-        <v>1334.281072180482</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="M23" t="n">
-        <v>2110.599663172236</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N23" t="n">
-        <v>2863.780679810854</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O23" t="n">
-        <v>3507.411536227959</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P23" t="n">
-        <v>4036.56823414711</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q23" t="n">
-        <v>4176.508562960204</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U23" t="n">
-        <v>4176.508562960204</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>4048.687652274017</v>
+        <v>1976.413759684685</v>
       </c>
       <c r="W23" t="n">
-        <v>3664.927351409186</v>
+        <v>1592.653458819854</v>
       </c>
       <c r="X23" t="n">
-        <v>3264.283953578138</v>
+        <v>1592.653458819854</v>
       </c>
       <c r="Y23" t="n">
-        <v>2863.347280526228</v>
+        <v>1592.653458819854</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>762.3610131457385</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C24" t="n">
-        <v>628.3659418946842</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D24" t="n">
-        <v>511.4687841140766</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E24" t="n">
-        <v>390.9759681064046</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F24" t="n">
-        <v>282.0160882889091</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G24" t="n">
-        <v>175.0259756032479</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H24" t="n">
-        <v>104.2787626389639</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="K24" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="L24" t="n">
-        <v>744.6183431784923</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="M24" t="n">
-        <v>1587.595423873059</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N24" t="n">
-        <v>1587.595423873059</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O24" t="n">
-        <v>2130.019367109704</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P24" t="n">
-        <v>2130.019367109704</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q24" t="n">
-        <v>2130.019367109704</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R24" t="n">
-        <v>2130.019367109704</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S24" t="n">
-        <v>2022.029357224013</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T24" t="n">
-        <v>1862.687493411021</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U24" t="n">
-        <v>1665.33668254924</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V24" t="n">
-        <v>1451.625155542274</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W24" t="n">
-        <v>1238.391987278602</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X24" t="n">
-        <v>1062.066005417495</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y24" t="n">
-        <v>902.6640457813252</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>411.4156497986422</v>
+        <v>84.63115809937611</v>
       </c>
       <c r="C25" t="n">
-        <v>240.3222773603587</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I25" t="n">
-        <v>83.5301712592041</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J25" t="n">
-        <v>97.61272066441461</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K25" t="n">
-        <v>252.1650483866526</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L25" t="n">
-        <v>512.0621486667131</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M25" t="n">
-        <v>801.3262051072064</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N25" t="n">
-        <v>1082.164987501457</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O25" t="n">
-        <v>1341.725597827931</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P25" t="n">
-        <v>1547.401038077543</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q25" t="n">
-        <v>1612.929067880054</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1527.656349555454</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S25" t="n">
-        <v>1341.264581435364</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T25" t="n">
-        <v>1341.264581435364</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U25" t="n">
-        <v>1341.264581435364</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V25" t="n">
-        <v>1341.264581435364</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W25" t="n">
-        <v>1062.194916944238</v>
+        <v>735.4104252449724</v>
       </c>
       <c r="X25" t="n">
-        <v>823.8510548039219</v>
+        <v>497.0665631046558</v>
       </c>
       <c r="Y25" t="n">
-        <v>599.1153561926866</v>
+        <v>272.3308644934205</v>
       </c>
     </row>
     <row r="26">
@@ -6200,46 +6202,46 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>902.9139097323135</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="C26" t="n">
-        <v>902.9139097323135</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="D26" t="n">
-        <v>498.449979825374</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="E26" t="n">
-        <v>498.449979825374</v>
+        <v>1182.432279155364</v>
       </c>
       <c r="F26" t="n">
-        <v>77.41956777906159</v>
+        <v>761.4018671090519</v>
       </c>
       <c r="G26" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J26" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K26" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L26" t="n">
-        <v>295.9505570973564</v>
+        <v>176.0078249962694</v>
       </c>
       <c r="M26" t="n">
-        <v>295.9505570973564</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="N26" t="n">
-        <v>812.7934917636817</v>
+        <v>692.8507596625946</v>
       </c>
       <c r="O26" t="n">
-        <v>1329.636426430007</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P26" t="n">
         <v>1726.536628995245</v>
@@ -6257,19 +6259,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U26" t="n">
-        <v>2088.254281480102</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V26" t="n">
-        <v>2088.254281480102</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="W26" t="n">
-        <v>1704.493980615271</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="X26" t="n">
-        <v>1303.850582784223</v>
+        <v>1596.772494638468</v>
       </c>
       <c r="Y26" t="n">
-        <v>902.9139097323135</v>
+        <v>1596.772494638468</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960204</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>497.5713418949007</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L27" t="n">
-        <v>1014.414276561226</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M27" t="n">
-        <v>1014.414276561226</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N27" t="n">
-        <v>1014.414276561226</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="O27" t="n">
-        <v>1531.257211227551</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P27" t="n">
-        <v>1738.409816796118</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q27" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6358,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1053.75045561901</v>
+        <v>819.3856360263594</v>
       </c>
       <c r="C28" t="n">
-        <v>882.6570831807262</v>
+        <v>648.2922635880759</v>
       </c>
       <c r="D28" t="n">
-        <v>800.5109188153651</v>
+        <v>488.7976189109859</v>
       </c>
       <c r="E28" t="n">
-        <v>639.6001036836846</v>
+        <v>488.7976189109859</v>
       </c>
       <c r="F28" t="n">
         <v>474.9689777942758</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198193</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H28" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6412,22 +6414,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="V28" t="n">
-        <v>1571.163982250452</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="W28" t="n">
-        <v>1292.094317759326</v>
+        <v>1057.729498166676</v>
       </c>
       <c r="X28" t="n">
-        <v>1053.75045561901</v>
+        <v>819.3856360263594</v>
       </c>
       <c r="Y28" t="n">
-        <v>1053.75045561901</v>
+        <v>819.3856360263594</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1690.327927173125</v>
+        <v>1695.988587952916</v>
       </c>
       <c r="C29" t="n">
-        <v>1690.327927173125</v>
+        <v>1285.863997266186</v>
       </c>
       <c r="D29" t="n">
         <v>1285.863997266186</v>
@@ -6452,31 +6454,31 @@
         <v>450.4933697367699</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J29" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L29" t="n">
-        <v>537.7254774811266</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="M29" t="n">
-        <v>1054.568412147452</v>
+        <v>1054.568412147451</v>
       </c>
       <c r="N29" t="n">
         <v>1571.411346813777</v>
       </c>
       <c r="O29" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P29" t="n">
         <v>2088.254281480102</v>
@@ -6534,31 +6536,31 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J30" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K30" t="n">
-        <v>690.384199457534</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L30" t="n">
-        <v>1207.227134123859</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M30" t="n">
-        <v>1724.070068790184</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N30" t="n">
-        <v>1738.409816796118</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O30" t="n">
-        <v>1738.409816796118</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P30" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q30" t="n">
         <v>2088.254281480102</v>
@@ -6595,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>224.1971997769844</v>
+        <v>546.2166095538986</v>
       </c>
       <c r="C31" t="n">
-        <v>224.1971997769844</v>
+        <v>546.2166095538986</v>
       </c>
       <c r="D31" t="n">
-        <v>224.1971997769844</v>
+        <v>546.2166095538986</v>
       </c>
       <c r="E31" t="n">
-        <v>224.1971997769844</v>
+        <v>546.2166095538986</v>
       </c>
       <c r="F31" t="n">
-        <v>224.1971997769844</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G31" t="n">
-        <v>224.1971997769844</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H31" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6643,28 +6645,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R31" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S31" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U31" t="n">
-        <v>777.1526093285881</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V31" t="n">
-        <v>503.2668642681101</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="W31" t="n">
-        <v>224.1971997769844</v>
+        <v>1009.29617030545</v>
       </c>
       <c r="X31" t="n">
-        <v>224.1971997769844</v>
+        <v>770.9523081651339</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.1971997769844</v>
+        <v>546.2166095538986</v>
       </c>
     </row>
     <row r="32">
@@ -6674,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1287.260303845748</v>
+        <v>762.7981736886139</v>
       </c>
       <c r="C32" t="n">
-        <v>877.1357131590178</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D32" t="n">
-        <v>877.1357131590178</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E32" t="n">
-        <v>462.7954976759145</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F32" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G32" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J32" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L32" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M32" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="N32" t="n">
-        <v>1329.636426430007</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="O32" t="n">
-        <v>1329.636426430007</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P32" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q32" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
@@ -6734,16 +6736,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V32" t="n">
-        <v>1738.416726816583</v>
+        <v>1974.599424236061</v>
       </c>
       <c r="W32" t="n">
-        <v>1354.656425951752</v>
+        <v>1974.599424236061</v>
       </c>
       <c r="X32" t="n">
-        <v>1287.260303845748</v>
+        <v>1573.956026405013</v>
       </c>
       <c r="Y32" t="n">
-        <v>1287.260303845748</v>
+        <v>1173.019353353103</v>
       </c>
     </row>
     <row r="33">
@@ -6753,49 +6755,49 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C33" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D33" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E33" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F33" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G33" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L33" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M33" t="n">
-        <v>690.384199457534</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="N33" t="n">
-        <v>1207.227134123859</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="O33" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.850297433489</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q33" t="n">
         <v>2058.694762117472</v>
@@ -6813,16 +6815,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V33" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W33" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X33" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y33" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1014.752890035065</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C34" t="n">
-        <v>843.6595175967814</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D34" t="n">
-        <v>684.1648729196913</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E34" t="n">
-        <v>523.2540577880108</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F34" t="n">
-        <v>358.622931898602</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G34" t="n">
-        <v>191.3725408241454</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H34" t="n">
-        <v>41.76508562960205</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I34" t="n">
-        <v>41.76508562960205</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J34" t="n">
-        <v>55.84763503481257</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K34" t="n">
-        <v>210.3999627570506</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L34" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M34" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N34" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O34" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P34" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q34" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R34" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S34" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T34" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U34" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V34" t="n">
-        <v>1571.163982250452</v>
+        <v>1814.368536419624</v>
       </c>
       <c r="W34" t="n">
-        <v>1571.163982250452</v>
+        <v>1814.368536419624</v>
       </c>
       <c r="X34" t="n">
-        <v>1427.188295040345</v>
+        <v>1814.368536419624</v>
       </c>
       <c r="Y34" t="n">
-        <v>1202.452596429109</v>
+        <v>1814.368536419624</v>
       </c>
     </row>
     <row r="35">
@@ -6911,40 +6913,40 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>876.4530309326553</v>
+        <v>1678.033101815612</v>
       </c>
       <c r="C35" t="n">
-        <v>466.3284402459254</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="D35" t="n">
-        <v>61.86451033898595</v>
+        <v>1267.908511128882</v>
       </c>
       <c r="E35" t="n">
-        <v>41.76508562960205</v>
+        <v>853.568295645779</v>
       </c>
       <c r="F35" t="n">
-        <v>41.76508562960205</v>
+        <v>432.5378835994666</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L35" t="n">
-        <v>812.7934917636817</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="M35" t="n">
-        <v>812.7934917636817</v>
+        <v>1014.011766457887</v>
       </c>
       <c r="N35" t="n">
         <v>1014.011766457887</v>
@@ -6977,10 +6979,10 @@
         <v>2088.254281480102</v>
       </c>
       <c r="X35" t="n">
-        <v>1687.610883649055</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y35" t="n">
-        <v>1286.674210597145</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7010,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L36" t="n">
-        <v>537.7254774811262</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M36" t="n">
-        <v>1054.568412147451</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N36" t="n">
-        <v>1571.411346813777</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O36" t="n">
-        <v>2088.254281480102</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P36" t="n">
         <v>2088.254281480102</v>
@@ -7069,46 +7071,46 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>558.8553848592519</v>
+        <v>1648.189235160388</v>
       </c>
       <c r="C37" t="n">
-        <v>558.8553848592519</v>
+        <v>1477.095862722104</v>
       </c>
       <c r="D37" t="n">
-        <v>558.8553848592519</v>
+        <v>1317.601218045014</v>
       </c>
       <c r="E37" t="n">
-        <v>558.8553848592519</v>
+        <v>1156.690402913334</v>
       </c>
       <c r="F37" t="n">
-        <v>558.8553848592519</v>
+        <v>992.0592770239252</v>
       </c>
       <c r="G37" t="n">
-        <v>558.8553848592519</v>
+        <v>824.8088859494686</v>
       </c>
       <c r="H37" t="n">
-        <v>558.8553848592519</v>
+        <v>675.2014307549252</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592519</v>
+        <v>558.8553848592514</v>
       </c>
       <c r="J37" t="n">
-        <v>572.9379342644625</v>
+        <v>572.937934264462</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867005</v>
+        <v>727.4902619867</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667611</v>
+        <v>987.3873622667606</v>
       </c>
       <c r="M37" t="n">
         <v>1276.651418707254</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101505</v>
+        <v>1557.490201101504</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427979</v>
+        <v>1817.050811427978</v>
       </c>
       <c r="P37" t="n">
         <v>2022.726251677591</v>
@@ -7117,28 +7119,28 @@
         <v>2088.254281480102</v>
       </c>
       <c r="R37" t="n">
-        <v>2002.981563155502</v>
+        <v>2002.981563155501</v>
       </c>
       <c r="S37" t="n">
-        <v>1816.589795035412</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="T37" t="n">
-        <v>1577.041056012114</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="U37" t="n">
-        <v>1294.242908558238</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="V37" t="n">
-        <v>1020.35716349776</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="W37" t="n">
-        <v>741.2874990066346</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="X37" t="n">
-        <v>558.8553848592519</v>
+        <v>1835.888941554432</v>
       </c>
       <c r="Y37" t="n">
-        <v>558.8553848592519</v>
+        <v>1835.888941554432</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1704.493980615271</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C38" t="n">
-        <v>1294.369389928541</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D38" t="n">
-        <v>889.9054600216014</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E38" t="n">
-        <v>475.5652445384981</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F38" t="n">
-        <v>54.53483249218561</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K38" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L38" t="n">
-        <v>558.6080202959273</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="M38" t="n">
-        <v>733.4074053521598</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="N38" t="n">
-        <v>1250.250340018485</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="O38" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="P38" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q38" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S38" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221061</v>
       </c>
       <c r="U38" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817052</v>
       </c>
       <c r="W38" t="n">
-        <v>1704.493980615271</v>
+        <v>740.1083749522209</v>
       </c>
       <c r="X38" t="n">
-        <v>1704.493980615271</v>
+        <v>339.4649771211734</v>
       </c>
       <c r="Y38" t="n">
-        <v>1704.493980615271</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="39">
@@ -7248,25 +7250,25 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="L39" t="n">
-        <v>537.7254774811262</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="M39" t="n">
-        <v>1054.568412147451</v>
+        <v>751.4208778585604</v>
       </c>
       <c r="N39" t="n">
-        <v>1571.411346813777</v>
+        <v>1268.263812524885</v>
       </c>
       <c r="O39" t="n">
-        <v>2088.254281480102</v>
+        <v>1785.106747191211</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7306,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>862.4253276531883</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="C40" t="n">
-        <v>691.3319552149048</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D40" t="n">
-        <v>684.1648729196913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E40" t="n">
-        <v>523.2540577880108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F40" t="n">
-        <v>358.622931898602</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G40" t="n">
-        <v>191.3725408241454</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H40" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7357,25 +7359,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S40" t="n">
-        <v>1384.772214130362</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1145.223475107064</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U40" t="n">
-        <v>862.4253276531883</v>
+        <v>1288.365834796576</v>
       </c>
       <c r="V40" t="n">
-        <v>862.4253276531883</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="W40" t="n">
-        <v>862.4253276531883</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="X40" t="n">
-        <v>862.4253276531883</v>
+        <v>1014.480089736098</v>
       </c>
       <c r="Y40" t="n">
-        <v>862.4253276531883</v>
+        <v>1014.480089736098</v>
       </c>
     </row>
     <row r="41">
@@ -7385,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>876.4530309326553</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C41" t="n">
-        <v>466.3284402459254</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D41" t="n">
-        <v>61.86451033898595</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E41" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F41" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G41" t="n">
-        <v>41.76508562960205</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K41" t="n">
-        <v>41.76508562960205</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959273</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="M41" t="n">
-        <v>1075.450954962253</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="N41" t="n">
-        <v>1075.450954962253</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="O41" t="n">
-        <v>1592.293889628578</v>
+        <v>1530.854701124212</v>
       </c>
       <c r="P41" t="n">
-        <v>1767.09327468481</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="Q41" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7445,16 +7447,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V41" t="n">
-        <v>2088.254281480102</v>
+        <v>1738.416726816582</v>
       </c>
       <c r="W41" t="n">
-        <v>2088.254281480102</v>
+        <v>1354.656425951751</v>
       </c>
       <c r="X41" t="n">
-        <v>1687.610883649055</v>
+        <v>954.0130281207037</v>
       </c>
       <c r="Y41" t="n">
-        <v>1286.674210597145</v>
+        <v>553.0763550687938</v>
       </c>
     </row>
     <row r="42">
@@ -7464,52 +7466,52 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650823</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593073</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G42" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936201</v>
+        <v>62.51367700936186</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J42" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K42" t="n">
-        <v>234.5779431922353</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L42" t="n">
-        <v>751.4208778585605</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M42" t="n">
-        <v>1025.008892784822</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N42" t="n">
-        <v>1541.851827451147</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O42" t="n">
-        <v>2058.694762117472</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q42" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R42" t="n">
         <v>2088.254281480102</v>
@@ -7524,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="43">
@@ -7543,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>589.4529029345438</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C43" t="n">
-        <v>526.8016713277814</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D43" t="n">
-        <v>367.3070266506913</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E43" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F43" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G43" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198192</v>
       </c>
       <c r="H43" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960205</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481257</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570506</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7591,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S43" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T43" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U43" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V43" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W43" t="n">
-        <v>777.1526093285881</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="X43" t="n">
-        <v>777.1526093285881</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y43" t="n">
-        <v>777.1526093285881</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>550.2172011089044</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C44" t="n">
-        <v>550.2172011089044</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D44" t="n">
-        <v>550.2172011089044</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E44" t="n">
-        <v>550.2172011089044</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F44" t="n">
-        <v>156.1234841894934</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I44" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J44" t="n">
-        <v>285.3976938477716</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>671.6489458004863</v>
+        <v>812.7934917636815</v>
       </c>
       <c r="L44" t="n">
-        <v>671.6489458004863</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M44" t="n">
-        <v>671.6489458004863</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N44" t="n">
-        <v>1057.900197753201</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O44" t="n">
-        <v>1198.893466516011</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P44" t="n">
-        <v>1198.893466516011</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q44" t="n">
-        <v>1520.054473311303</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R44" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1560.611119000868</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T44" t="n">
-        <v>1338.404634947726</v>
+        <v>1834.0035037814</v>
       </c>
       <c r="U44" t="n">
-        <v>1338.404634947726</v>
+        <v>1576.94301204091</v>
       </c>
       <c r="V44" t="n">
-        <v>1338.404634947726</v>
+        <v>1227.105457377391</v>
       </c>
       <c r="W44" t="n">
-        <v>1338.404634947726</v>
+        <v>843.3451565125595</v>
       </c>
       <c r="X44" t="n">
-        <v>944.3109180283154</v>
+        <v>442.7017586815119</v>
       </c>
       <c r="Y44" t="n">
-        <v>550.2172011089044</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>352.3547246730719</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C45" t="n">
-        <v>218.3596534220176</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D45" t="n">
-        <v>101.9594353443013</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E45" t="n">
-        <v>101.9594353443013</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F45" t="n">
-        <v>101.9594353443013</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G45" t="n">
-        <v>101.9594353443013</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H45" t="n">
-        <v>31.21222238001735</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J45" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="K45" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="L45" t="n">
-        <v>224.0250799426506</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="M45" t="n">
-        <v>610.2763318953653</v>
+        <v>558.6080202959272</v>
       </c>
       <c r="N45" t="n">
-        <v>996.52758384808</v>
+        <v>1075.450954962252</v>
       </c>
       <c r="O45" t="n">
-        <v>1174.359867048153</v>
+        <v>1592.293889628578</v>
       </c>
       <c r="P45" t="n">
-        <v>1560.611119000868</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R45" t="n">
-        <v>1560.611119000868</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="S45" t="n">
-        <v>1452.621109115176</v>
+        <v>1980.264271594411</v>
       </c>
       <c r="T45" t="n">
-        <v>1293.279245302185</v>
+        <v>1820.922407781419</v>
       </c>
       <c r="U45" t="n">
-        <v>1095.928434440403</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V45" t="n">
-        <v>882.216907433437</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W45" t="n">
-        <v>668.9837391697657</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X45" t="n">
-        <v>492.6577573086585</v>
+        <v>1020.300919787893</v>
       </c>
       <c r="Y45" t="n">
-        <v>492.6577573086585</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>361.8002394953908</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="C46" t="n">
-        <v>190.7068670571073</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="D46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="E46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="F46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="G46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="H46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="I46" t="n">
-        <v>31.21222238001735</v>
+        <v>41.76508562960203</v>
       </c>
       <c r="J46" t="n">
-        <v>45.29477178522787</v>
+        <v>55.84763503481255</v>
       </c>
       <c r="K46" t="n">
-        <v>199.8470995074659</v>
+        <v>210.3999627570505</v>
       </c>
       <c r="L46" t="n">
-        <v>459.7441997875264</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M46" t="n">
-        <v>749.0082562280197</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N46" t="n">
-        <v>1029.84703862227</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O46" t="n">
-        <v>1289.407648948744</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P46" t="n">
-        <v>1495.083089198357</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q46" t="n">
-        <v>1560.611119000868</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R46" t="n">
-        <v>1560.611119000868</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S46" t="n">
-        <v>1560.611119000868</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T46" t="n">
-        <v>1560.611119000868</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U46" t="n">
-        <v>1560.611119000868</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V46" t="n">
-        <v>1291.649171132113</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W46" t="n">
-        <v>1012.579506640987</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X46" t="n">
-        <v>774.2356445006706</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y46" t="n">
-        <v>549.4999458894353</v>
+        <v>41.76508562960203</v>
       </c>
     </row>
   </sheetData>
@@ -7976,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M2" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O2" t="n">
-        <v>228.7885022587807</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>615.7129336509097</v>
+        <v>337.8664545776215</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8058,25 +8060,25 @@
         <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
-        <v>333.9158139669643</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>53.19339339374999</v>
+        <v>559.8834573428703</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728293</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8213,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>611.1999600432426</v>
+        <v>549.1401736751963</v>
       </c>
       <c r="L5" t="n">
-        <v>496.3946935832877</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M5" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N5" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P5" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8292,31 +8294,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K6" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>562.8045877599699</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M6" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N6" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P6" t="n">
-        <v>54.25963500280375</v>
+        <v>94.81936791818303</v>
       </c>
       <c r="Q6" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8453,22 +8455,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328704</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>296.5410069764445</v>
       </c>
       <c r="N8" t="n">
-        <v>296.1630732760186</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8535,13 +8537,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>562.8045877599699</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N9" t="n">
-        <v>575.2569637637755</v>
+        <v>559.8834573428702</v>
       </c>
       <c r="O9" t="n">
         <v>57.751479</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L11" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>615.3537948270711</v>
+        <v>228.8889510900428</v>
       </c>
       <c r="N11" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O11" t="n">
-        <v>296.4405581451824</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P11" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q11" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
         <v>128.2784515920617</v>
@@ -8766,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M12" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O12" t="n">
-        <v>579.8150493700256</v>
+        <v>334.1030092285464</v>
       </c>
       <c r="P12" t="n">
-        <v>555.229727782121</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K14" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L14" t="n">
-        <v>95.48539806284482</v>
+        <v>555.489182064824</v>
       </c>
       <c r="M14" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N14" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O14" t="n">
-        <v>535.0653799235644</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P14" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q14" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9003,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M15" t="n">
-        <v>579.627854108443</v>
+        <v>564.2543476875378</v>
       </c>
       <c r="N15" t="n">
-        <v>200.7852390175288</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P15" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9163,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>265.701425083553</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L17" t="n">
-        <v>95.48539806284482</v>
+        <v>298.7361805822439</v>
       </c>
       <c r="M17" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O17" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P17" t="n">
-        <v>615.7129336509097</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q17" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,25 +9242,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>423.9773649117757</v>
       </c>
       <c r="M18" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N18" t="n">
-        <v>554.1634861730673</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O18" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>576.3232053728293</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q18" t="n">
         <v>56.69261850483872</v>
@@ -9401,22 +9403,22 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K20" t="n">
-        <v>632.7318453389136</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L20" t="n">
-        <v>632.3252292139175</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M20" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N20" t="n">
-        <v>92.91229075661933</v>
+        <v>269.477326166955</v>
       </c>
       <c r="O20" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P20" t="n">
-        <v>628.1510783507341</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q20" t="n">
         <v>414.4388617681339</v>
@@ -9486,19 +9488,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M21" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N21" t="n">
-        <v>707.1677543835841</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O21" t="n">
-        <v>711.7258399898342</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P21" t="n">
-        <v>621.6393243851574</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q21" t="n">
-        <v>248.5250110322107</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R21" t="n">
         <v>59.00019910540541</v>
@@ -9635,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>632.7318453389136</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L23" t="n">
-        <v>815.2746908024792</v>
+        <v>298.7361805822439</v>
       </c>
       <c r="M23" t="n">
-        <v>877.4504173780091</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N23" t="n">
-        <v>853.701196452193</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O23" t="n">
-        <v>743.321953824879</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P23" t="n">
-        <v>628.1510783507341</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q23" t="n">
-        <v>231.3876718871261</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R23" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9720,25 +9722,25 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L24" t="n">
-        <v>723.8803540323523</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N24" t="n">
-        <v>53.19339339374999</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O24" t="n">
-        <v>605.6544519663082</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P24" t="n">
-        <v>54.25963500280375</v>
+        <v>525.3716274158282</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,25 +9874,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K26" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L26" t="n">
-        <v>95.48539806284482</v>
+        <v>231.0841246958421</v>
       </c>
       <c r="M26" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N26" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P26" t="n">
-        <v>494.5586588013271</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9951,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808746</v>
+        <v>578.1780941808745</v>
       </c>
       <c r="M27" t="n">
-        <v>57.56428373841742</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N27" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P27" t="n">
-        <v>263.5046911326696</v>
+        <v>330.6111652313501</v>
       </c>
       <c r="Q27" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10109,25 +10111,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L29" t="n">
-        <v>596.4554908421626</v>
+        <v>339.7024893595822</v>
       </c>
       <c r="M29" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266449</v>
+        <v>614.9758611266448</v>
       </c>
       <c r="O29" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P29" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
@@ -10188,28 +10190,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K30" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L30" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M30" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N30" t="n">
-        <v>67.67798733913774</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O30" t="n">
-        <v>57.751479</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P30" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q30" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R30" t="n">
         <v>59.00019910540541</v>
@@ -10349,28 +10351,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L32" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M32" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N32" t="n">
-        <v>92.91229075661933</v>
+        <v>296.1630732760184</v>
       </c>
       <c r="O32" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P32" t="n">
-        <v>535.5249675786654</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10428,7 +10430,7 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>516.2361426485535</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L33" t="n">
         <v>56.11452381084905</v>
@@ -10437,13 +10439,13 @@
         <v>57.56428373841742</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O33" t="n">
-        <v>57.751479</v>
+        <v>502.7883324430331</v>
       </c>
       <c r="P33" t="n">
-        <v>560.9496989519245</v>
+        <v>576.3232053728292</v>
       </c>
       <c r="Q33" t="n">
         <v>410.0708656603775</v>
@@ -10586,22 +10588,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L35" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M35" t="n">
-        <v>93.29022445704545</v>
+        <v>296.5410069764445</v>
       </c>
       <c r="N35" t="n">
-        <v>296.1630732760185</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958087</v>
+        <v>615.2533459958086</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509097</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q35" t="n">
         <v>90.03380439915205</v>
@@ -10668,19 +10670,19 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L36" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M36" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P36" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10823,28 +10825,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432426</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L38" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M38" t="n">
-        <v>269.8552598673813</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N38" t="n">
-        <v>614.9758611266449</v>
+        <v>552.9160747585985</v>
       </c>
       <c r="O38" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P38" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q38" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10899,25 +10901,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L39" t="n">
-        <v>557.0846165901664</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M39" t="n">
-        <v>579.627854108443</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P39" t="n">
-        <v>54.25963500280375</v>
+        <v>360.4692655976433</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11060,28 +11062,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K41" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L41" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270711</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N41" t="n">
-        <v>92.91229075661933</v>
+        <v>552.9160747585985</v>
       </c>
       <c r="O41" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P41" t="n">
-        <v>270.21439869122</v>
+        <v>615.7129336509096</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R41" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K42" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L42" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M42" t="n">
-        <v>333.9158139669643</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637755</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700256</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P42" t="n">
-        <v>54.25963500280375</v>
+        <v>555.2297277821212</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R42" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11297,28 +11299,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>479.289169423434</v>
+        <v>611.1999600432425</v>
       </c>
       <c r="L44" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328703</v>
       </c>
       <c r="M44" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270709</v>
       </c>
       <c r="N44" t="n">
-        <v>483.0650705068362</v>
+        <v>337.1293820533567</v>
       </c>
       <c r="O44" t="n">
-        <v>235.6072188205402</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
         <v>93.64936328088416</v>
       </c>
       <c r="Q44" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11373,7 +11375,7 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>51.36923880000001</v>
       </c>
       <c r="K45" t="n">
         <v>55.82578278461539</v>
@@ -11382,19 +11384,19 @@
         <v>56.11452381084905</v>
       </c>
       <c r="M45" t="n">
-        <v>447.7170634886343</v>
+        <v>579.6278541084429</v>
       </c>
       <c r="N45" t="n">
-        <v>443.3461731439669</v>
+        <v>575.2569637637754</v>
       </c>
       <c r="O45" t="n">
-        <v>237.3800478889625</v>
+        <v>579.8150493700255</v>
       </c>
       <c r="P45" t="n">
-        <v>444.4124147530206</v>
+        <v>201.8514806265823</v>
       </c>
       <c r="Q45" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22544,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -22601,19 +22603,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>158.1930247012625</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>8.584269729476546</v>
       </c>
     </row>
     <row r="3">
@@ -22714,16 +22716,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>56.01419322081142</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,7 +22755,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>237.1532516330649</v>
@@ -22765,13 +22767,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>157.1745055375997</v>
       </c>
     </row>
     <row r="5">
@@ -22787,10 +22789,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F5" t="n">
         <v>416.8201079258493</v>
@@ -22838,19 +22840,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>373.2937744007747</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>214.0948636091082</v>
       </c>
     </row>
     <row r="6">
@@ -22942,7 +22944,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>70.43669735679198</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -22954,7 +22956,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -22990,22 +22992,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>106.0048267516904</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23018,22 +23020,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17.77593127592985</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -23075,10 +23077,10 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>197.563178631824</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>379.9226978561831</v>
@@ -23176,13 +23178,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>138.4820444257917</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -23191,10 +23193,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -23227,16 +23229,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
         <v>276.2789678462144</v>
@@ -23245,7 +23247,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>222.4883416251229</v>
+        <v>57.06664624006515</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.07625401595521</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
         <v>307.7994123985592</v>
@@ -23309,7 +23311,7 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>219.9844192126098</v>
+        <v>200.08598875032</v>
       </c>
       <c r="U11" t="n">
         <v>254.489886823085</v>
@@ -23321,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23461,13 +23463,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>8.893130557884689</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -23492,22 +23494,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>152.6616732899362</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>17.77593127593025</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23543,16 +23545,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W14" t="n">
         <v>379.9226978561831</v>
@@ -23561,7 +23563,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23653,25 +23655,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>39.42684194667757</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,22 +23703,22 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>235.9604235189134</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="Y16" t="n">
         <v>222.4883416251229</v>
@@ -23729,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>119.9052303356545</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>13.55422061770372</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
@@ -23783,22 +23785,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23893,16 +23895,16 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
@@ -23938,10 +23940,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>103.2645268972806</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.89313055788466</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -23966,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>303.2031319678375</v>
+        <v>63.80483742154962</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24023,19 +24025,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>68.7397136161983</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24175,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24206,13 +24208,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -24263,16 +24265,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>219.7964775375587</v>
+        <v>235.6170625394217</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="24">
@@ -24364,10 +24366,10 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>126.9450269688243</v>
       </c>
       <c r="D25" t="n">
-        <v>2.675513190176019</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T25" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24446,19 +24448,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>369.3430639381311</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>85.48824505609757</v>
@@ -24497,19 +24499,19 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>346.3391791168841</v>
+        <v>114.2620969667512</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="27">
@@ -24604,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>76.57499550861162</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>149.2944599249716</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T28" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,13 +24679,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>12.17187710393722</v>
+        <v>17.7759312759303</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24847,13 +24849,13 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>92.4496591884881</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>82.68617307340649</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24923,16 +24925,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H32" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>85.48824505609757</v>
@@ -24974,16 +24976,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>233.8208704452834</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>329.9148029677933</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25072,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>21.30520108346042</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25132,16 +25134,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>93.42449318090726</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25157,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>390.2983828659822</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>404.6410012660961</v>
+        <v>17.77593127593025</v>
       </c>
       <c r="H35" t="n">
         <v>307.7994123985592</v>
@@ -25217,10 +25219,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="36">
@@ -25309,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,22 +25362,22 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>19.10615505383041</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>55.35263051300461</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
         <v>222.4883416251229</v>
@@ -25391,19 +25393,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>391.9989518721384</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H38" t="n">
         <v>307.7994123985592</v>
@@ -25439,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>396.9273063213908</v>
+        <v>102.2044137447352</v>
       </c>
     </row>
     <row r="39">
@@ -25549,10 +25551,10 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>115.4526577326942</v>
       </c>
       <c r="D40" t="n">
-        <v>150.8042867580577</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>276.2789678462144</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>207.7202235216039</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>390.2983828659822</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
         <v>416.8201079258493</v>
@@ -25643,7 +25645,7 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25685,10 +25687,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>107.3577194232059</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
@@ -25849,10 +25851,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>235.9604235189134</v>
+        <v>208.6070786176243</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25874,10 +25876,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>26.66732817563241</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>280.9788520747148</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H44" t="n">
         <v>307.7994123985592</v>
@@ -25913,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>102.2044137447353</v>
       </c>
       <c r="U44" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>6.484184102520089</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>6.774526571173908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -25947,22 +25949,22 @@
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.491970305862381</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>119.2878878475953</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>107.8702810193205</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>105.9202115588047</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>20.54110546596223</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -26010,7 +26012,7 @@
         <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>157.8079400398083</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26020,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
         <v>159.3017069803637</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T46" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>4.874559219806031</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>93.31312169923905</v>
       </c>
     </row>
   </sheetData>
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>551751.141139705</v>
+        <v>551751.1411397047</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>551751.1411397049</v>
+        <v>551751.1411397047</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>551751.1411397049</v>
+        <v>551751.1411397047</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>610836.8778534201</v>
+        <v>551751.1411397047</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>785594.8662949189</v>
+        <v>551751.1411397046</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>551751.141139705</v>
+        <v>551751.1411397049</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>551751.141139705</v>
+        <v>551751.1411397047</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>461192.5999453169</v>
+        <v>551751.1411397047</v>
       </c>
     </row>
   </sheetData>
@@ -26311,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114155.4085116631</v>
+        <v>114155.408511663</v>
       </c>
       <c r="C2" t="n">
         <v>114155.4085116631</v>
       </c>
       <c r="D2" t="n">
-        <v>114155.4085116631</v>
+        <v>114155.408511663</v>
       </c>
       <c r="E2" t="n">
-        <v>114155.4085116631</v>
+        <v>114155.408511663</v>
       </c>
       <c r="F2" t="n">
         <v>114155.4085116631</v>
@@ -26329,19 +26331,19 @@
         <v>114155.4085116631</v>
       </c>
       <c r="H2" t="n">
-        <v>126380.0436938111</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="I2" t="n">
-        <v>162536.868888604</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="J2" t="n">
         <v>114155.4085116631</v>
       </c>
       <c r="K2" t="n">
-        <v>114155.4085116631</v>
+        <v>114155.408511663</v>
       </c>
       <c r="L2" t="n">
-        <v>114155.4085116631</v>
+        <v>114155.408511663</v>
       </c>
       <c r="M2" t="n">
         <v>114155.4085116631</v>
@@ -26353,7 +26355,7 @@
         <v>114155.4085116631</v>
       </c>
       <c r="P2" t="n">
-        <v>95419.15860937601</v>
+        <v>114155.4085116631</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.5098931141</v>
+        <v>174955.509893114</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>35590.71850633996</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>103749.8173439574</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26418,7 +26420,7 @@
         <v>433.9049324434263</v>
       </c>
       <c r="C4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434262</v>
       </c>
       <c r="D4" t="n">
         <v>433.9049324434263</v>
@@ -26433,10 +26435,10 @@
         <v>433.9049324434263</v>
       </c>
       <c r="H4" t="n">
-        <v>496.2691564111235</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="I4" t="n">
-        <v>680.72393242782</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="J4" t="n">
         <v>433.9049324434263</v>
@@ -26454,10 +26456,10 @@
         <v>433.9049324434263</v>
       </c>
       <c r="O4" t="n">
-        <v>433.9049324434264</v>
+        <v>433.9049324434263</v>
       </c>
       <c r="P4" t="n">
-        <v>338.3215741009759</v>
+        <v>433.9049324434263</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849755</v>
+        <v>65369.06507849754</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26485,10 +26487,10 @@
         <v>31741.46507849755</v>
       </c>
       <c r="H5" t="n">
-        <v>39761.64114818192</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="I5" t="n">
-        <v>63482.93015699511</v>
+        <v>31741.46507849755</v>
       </c>
       <c r="J5" t="n">
         <v>31741.46507849755</v>
@@ -26509,7 +26511,7 @@
         <v>31741.46507849755</v>
       </c>
       <c r="P5" t="n">
-        <v>23721.28900881319</v>
+        <v>31741.46507849755</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126603.0713923919</v>
+        <v>-126603.071392392</v>
       </c>
       <c r="C6" t="n">
-        <v>48352.43850072212</v>
+        <v>48352.43850072211</v>
       </c>
       <c r="D6" t="n">
-        <v>48352.43850072208</v>
+        <v>48352.43850072207</v>
       </c>
       <c r="E6" t="n">
+        <v>81980.03850072208</v>
+      </c>
+      <c r="F6" t="n">
+        <v>81980.03850072209</v>
+      </c>
+      <c r="G6" t="n">
+        <v>81980.03850072213</v>
+      </c>
+      <c r="H6" t="n">
+        <v>81980.03850072215</v>
+      </c>
+      <c r="I6" t="n">
+        <v>81980.03850072209</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-54614.76230517284</v>
+      </c>
+      <c r="K6" t="n">
+        <v>81980.03850072208</v>
+      </c>
+      <c r="L6" t="n">
+        <v>81980.03850072206</v>
+      </c>
+      <c r="M6" t="n">
+        <v>81980.0385007221</v>
+      </c>
+      <c r="N6" t="n">
+        <v>81980.0385007221</v>
+      </c>
+      <c r="O6" t="n">
         <v>81980.03850072212</v>
       </c>
-      <c r="F6" t="n">
-        <v>81980.03850072213</v>
-      </c>
-      <c r="G6" t="n">
-        <v>81980.03850072216</v>
-      </c>
-      <c r="H6" t="n">
-        <v>50531.41488287807</v>
-      </c>
-      <c r="I6" t="n">
-        <v>-5376.602544776382</v>
-      </c>
-      <c r="J6" t="n">
-        <v>81980.03850072215</v>
-      </c>
-      <c r="K6" t="n">
-        <v>81980.03850072213</v>
-      </c>
-      <c r="L6" t="n">
+      <c r="P6" t="n">
         <v>81980.0385007221</v>
-      </c>
-      <c r="M6" t="n">
-        <v>81980.03850072209</v>
-      </c>
-      <c r="N6" t="n">
-        <v>81980.03850072213</v>
-      </c>
-      <c r="O6" t="n">
-        <v>81980.0385007221</v>
-      </c>
-      <c r="P6" t="n">
-        <v>71359.54802646185</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="H4" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="I4" t="n">
-        <v>1044.127140740051</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P4" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>390.152779750217</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>131.9107906198087</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O2" t="n">
-        <v>135.5987266329976</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>522.0635703700256</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34778,25 +34780,25 @@
         <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>276.3515302285469</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34933,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="L5" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35012,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>506.6900639491208</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>40.55973291537929</v>
       </c>
       <c r="Q6" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35173,22 +35175,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="N8" t="n">
-        <v>203.2507825193993</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35255,13 +35257,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>506.6900639491208</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N9" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L11" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>522.0635703700256</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>203.2507825193993</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R11" t="n">
         <v>40.9663087773382</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O12" t="n">
-        <v>522.0635703700256</v>
+        <v>276.3515302285464</v>
       </c>
       <c r="P12" t="n">
-        <v>500.9700927793172</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O14" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P14" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="N15" t="n">
-        <v>147.5918456237788</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P15" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>176.5650354103358</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>367.8628411009267</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N18" t="n">
-        <v>500.9700927793173</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36121,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>543.5954556656965</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>536.8398311510726</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>176.5650354103356</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36206,19 +36208,19 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O21" t="n">
-        <v>653.9743609898342</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P21" t="n">
-        <v>567.3796893823536</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q21" t="n">
-        <v>191.832392527372</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>543.5954556656965</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L23" t="n">
-        <v>719.7892927396343</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="M23" t="n">
-        <v>784.1601929209636</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>760.7889056955737</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>650.1321781990958</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P23" t="n">
-        <v>534.50171506985</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q23" t="n">
-        <v>141.353867487974</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36442,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>667.7658302215033</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>851.4920007015825</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O24" t="n">
-        <v>547.9029729663082</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>471.1119924130245</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,25 +36594,25 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>135.5987266329973</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N26" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P26" t="n">
-        <v>400.9092955204429</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q26" t="n">
         <v>324.4050573689818</v>
@@ -36671,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P27" t="n">
-        <v>209.2450561298658</v>
+        <v>276.3515302285464</v>
       </c>
       <c r="Q27" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36829,25 +36831,25 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L29" t="n">
-        <v>500.9700927793178</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="M29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O29" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N30" t="n">
-        <v>14.48459394538775</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q30" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37069,28 +37071,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P32" t="n">
-        <v>441.8756042977812</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q32" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37150,7 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>460.4103598639381</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37157,13 +37159,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>445.0368534430331</v>
       </c>
       <c r="P33" t="n">
-        <v>506.6900639491207</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q33" t="n">
         <v>353.3782471555388</v>
@@ -37306,22 +37308,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>203.2507825193991</v>
       </c>
       <c r="N35" t="n">
-        <v>203.2507825193992</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37388,19 +37390,19 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37543,28 +37545,28 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M38" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N38" t="n">
-        <v>522.0635703700256</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="O38" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.9700927793173</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>306.2096305948396</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37780,28 +37782,28 @@
         <v>0</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>460.0037840019792</v>
       </c>
       <c r="O41" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>176.5650354103359</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="Q41" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>276.3515302285469</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700256</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>500.9700927793174</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38017,28 +38019,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N44" t="n">
-        <v>390.1527797502169</v>
+        <v>244.2170912967374</v>
       </c>
       <c r="O44" t="n">
-        <v>142.4174431947571</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,7 +38095,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>194.760462184478</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38102,19 +38104,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="N45" t="n">
-        <v>390.1527797502169</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="O45" t="n">
-        <v>179.6285688889625</v>
+        <v>522.0635703700254</v>
       </c>
       <c r="P45" t="n">
-        <v>390.1527797502169</v>
+        <v>147.5918456237786</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_12.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_0_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>358926.5066844978</v>
+        <v>353197.1108532713</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11821355.91763806</v>
+        <v>11821355.91763805</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10162932.89091067</v>
+        <v>10162932.89091065</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6379966.271465395</v>
+        <v>6379966.271465397</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>404.6410012660961</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>14.5281517492926</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.3430365919143</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868341</v>
+        <v>106.9101097868346</v>
       </c>
       <c r="T3" t="n">
         <v>157.7484451748619</v>
@@ -816,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>129.1752199258844</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.31383608752321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -949,22 +949,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>269.3567936472376</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>182.8324427122826</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I6" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1056,25 +1056,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>98.94574135710867</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1104,22 +1104,22 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
-        <v>184.5278504388888</v>
+        <v>129.1752199258839</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>406.1189678678446</v>
+        <v>268.6222456529766</v>
       </c>
       <c r="C8" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>56.92670819126101</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>29.06736062834933</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
-        <v>165.4216953850578</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1372,25 +1372,25 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C11" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>16.17050839795128</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>19.89843046228975</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1435,10 +1435,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1469,7 +1469,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I12" t="n">
-        <v>20.54110546596223</v>
+        <v>20.54110546596236</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.1532516330649</v>
@@ -1593,10 +1593,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>27.77250173713433</v>
       </c>
     </row>
     <row r="14">
@@ -1609,19 +1609,19 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C14" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>399.0441766499191</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>214.7599597525833</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1706,7 +1706,7 @@
         <v>70.03974083464111</v>
       </c>
       <c r="I15" t="n">
-        <v>20.54110546596193</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1815,7 +1815,7 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1830,10 +1830,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059085</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>129.1752199258839</v>
       </c>
     </row>
     <row r="17">
@@ -1843,22 +1843,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>286.2137375321901</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -1897,22 +1897,22 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>396.9273063213908</v>
+        <v>144.5542898268345</v>
       </c>
     </row>
     <row r="18">
@@ -2007,10 +2007,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>162.9848146305146</v>
@@ -2019,7 +2019,7 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2052,10 +2052,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>81.2633235416082</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -2067,10 +2067,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>26.67217837041856</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
-        <v>340.8361638445465</v>
+        <v>32.95238632371646</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,22 +2131,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>159.3017069803637</v>
@@ -2253,13 +2253,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2292,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
-        <v>27.35334490128912</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>162.4555770662332</v>
       </c>
     </row>
     <row r="23">
@@ -2320,22 +2320,22 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F23" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>404.6410012660961</v>
+        <v>386.8650699901663</v>
       </c>
       <c r="H23" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2377,10 +2377,10 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>110.7221165774625</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -2475,19 +2475,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>42.43741174507633</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,10 +2532,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>204.6902319483018</v>
       </c>
       <c r="W25" t="n">
         <v>276.2789678462144</v>
@@ -2563,19 +2563,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>307.7994123985592</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>83.95433456227092</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U26" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V26" t="n">
-        <v>232.0770821501329</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>13.69035470554302</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2769,19 +2769,19 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V28" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="29">
@@ -2791,16 +2791,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>388.3430365919143</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E29" t="n">
-        <v>410.1968133282722</v>
+        <v>195.7413336026447</v>
       </c>
       <c r="F29" t="n">
         <v>416.8201079258493</v>
@@ -2842,13 +2842,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>70.53515544202655</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U31" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
         <v>276.2789678462144</v>
@@ -3018,7 +3018,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>213.5952110672383</v>
       </c>
     </row>
     <row r="32">
@@ -3028,13 +3028,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>366.5558355656261</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V32" t="n">
-        <v>112.5183086716006</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>106.9101097868341</v>
+        <v>106.9101097868343</v>
       </c>
       <c r="T33" t="n">
         <v>157.7484451748619</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>164.5175082466435</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3240,22 +3240,22 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>42.43741174507631</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3265,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>386.8650699901659</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,22 +3316,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>241.4133670011819</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>165.4216953850584</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>228.2601210751802</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3511,10 +3511,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -3562,16 +3562,16 @@
         <v>254.489886823085</v>
       </c>
       <c r="V38" t="n">
-        <v>346.3391791168841</v>
+        <v>184.4858442804941</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>294.7228925766556</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3663,19 +3663,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>53.92978098120648</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>148.1113806425979</v>
@@ -3714,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U40" t="n">
         <v>279.9701659793371</v>
@@ -3723,13 +3723,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>186.2616685068367</v>
       </c>
     </row>
     <row r="41">
@@ -3739,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>198.3987443462406</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -3748,16 +3748,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>11.54070663599321</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V41" t="n">
         <v>346.3391791168841</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3903,22 +3903,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H43" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,25 +3945,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>62.61381628185782</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>27.35334490128912</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3988,13 +3988,13 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>33.36620735776427</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,19 +4027,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>117.7800054678745</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U44" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
         <v>396.636963852737</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1695.988587952916</v>
+        <v>465.1682704936311</v>
       </c>
       <c r="C2" t="n">
-        <v>1285.863997266186</v>
+        <v>465.1682704936311</v>
       </c>
       <c r="D2" t="n">
-        <v>1285.863997266186</v>
+        <v>465.1682704936311</v>
       </c>
       <c r="E2" t="n">
-        <v>871.5237817830823</v>
+        <v>465.1682704936311</v>
       </c>
       <c r="F2" t="n">
-        <v>450.4933697367699</v>
+        <v>465.1682704936311</v>
       </c>
       <c r="G2" t="n">
-        <v>41.76508562960203</v>
+        <v>56.43998638646326</v>
       </c>
       <c r="H2" t="n">
-        <v>41.76508562960203</v>
+        <v>56.43998638646326</v>
       </c>
       <c r="I2" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636815</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>216.5644706858345</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>733.4074053521598</v>
       </c>
       <c r="N2" t="n">
-        <v>1846.479361096332</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O2" t="n">
-        <v>1846.479361096332</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q2" t="n">
         <v>2088.254281480102</v>
@@ -4360,22 +4360,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y2" t="n">
-        <v>1695.988587952916</v>
+        <v>875.3894501581206</v>
       </c>
     </row>
     <row r="3">
@@ -4403,10 +4403,10 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H3" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I3" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J3" t="n">
         <v>234.5779431922353</v>
@@ -4415,19 +4415,19 @@
         <v>690.384199457534</v>
       </c>
       <c r="L3" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M3" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="N3" t="n">
-        <v>1192.007362767163</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O3" t="n">
-        <v>1192.007362767163</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P3" t="n">
-        <v>1708.850297433488</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1131.098935930739</v>
+        <v>689.3354049864079</v>
       </c>
       <c r="C4" t="n">
-        <v>960.0055634924552</v>
+        <v>689.3354049864079</v>
       </c>
       <c r="D4" t="n">
-        <v>800.5109188153651</v>
+        <v>689.3354049864079</v>
       </c>
       <c r="E4" t="n">
-        <v>639.6001036836846</v>
+        <v>689.3354049864079</v>
       </c>
       <c r="F4" t="n">
-        <v>474.9689777942758</v>
+        <v>689.3354049864079</v>
       </c>
       <c r="G4" t="n">
-        <v>307.7185867198192</v>
+        <v>689.3354049864079</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="I4" t="n">
-        <v>41.76508562960203</v>
+        <v>558.8553848592519</v>
       </c>
       <c r="J4" t="n">
-        <v>55.84763503481255</v>
+        <v>572.9379342644625</v>
       </c>
       <c r="K4" t="n">
-        <v>210.3999627570505</v>
+        <v>727.4902619867005</v>
       </c>
       <c r="L4" t="n">
-        <v>470.2970630371111</v>
+        <v>987.3873622667611</v>
       </c>
       <c r="M4" t="n">
-        <v>759.5611194776044</v>
+        <v>1276.651418707254</v>
       </c>
       <c r="N4" t="n">
-        <v>1040.399901871855</v>
+        <v>1557.490201101505</v>
       </c>
       <c r="O4" t="n">
-        <v>1299.960512198329</v>
+        <v>1817.050811427979</v>
       </c>
       <c r="P4" t="n">
-        <v>1505.635952447941</v>
+        <v>2022.726251677591</v>
       </c>
       <c r="Q4" t="n">
-        <v>1571.163982250452</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="S4" t="n">
-        <v>1384.772214130362</v>
+        <v>2002.981563155502</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.772214130362</v>
+        <v>1763.432824132204</v>
       </c>
       <c r="U4" t="n">
-        <v>1384.772214130362</v>
+        <v>1480.634676678328</v>
       </c>
       <c r="V4" t="n">
-        <v>1384.772214130362</v>
+        <v>1206.74893161785</v>
       </c>
       <c r="W4" t="n">
-        <v>1384.772214130362</v>
+        <v>927.6792671267244</v>
       </c>
       <c r="X4" t="n">
-        <v>1384.772214130362</v>
+        <v>689.3354049864079</v>
       </c>
       <c r="Y4" t="n">
-        <v>1318.798642324783</v>
+        <v>689.3354049864079</v>
       </c>
     </row>
     <row r="5">
@@ -4543,49 +4543,49 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>451.8896763163319</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="C5" t="n">
-        <v>41.76508562960203</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="D5" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="E5" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="F5" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="G5" t="n">
-        <v>41.76508562960203</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
-        <v>41.76508562960203</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1688317915614</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>176.0078249962696</v>
       </c>
       <c r="N5" t="n">
-        <v>1530.854701124212</v>
+        <v>692.8507596625949</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q5" t="n">
         <v>2047.697635790537</v>
@@ -4597,22 +4597,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U5" t="n">
-        <v>1831.193789739612</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="V5" t="n">
-        <v>1831.193789739612</v>
+        <v>1516.210242763442</v>
       </c>
       <c r="W5" t="n">
-        <v>1447.433488874781</v>
+        <v>1244.132673422798</v>
       </c>
       <c r="X5" t="n">
-        <v>1046.790091043733</v>
+        <v>843.4892755917504</v>
       </c>
       <c r="Y5" t="n">
-        <v>862.1108559808214</v>
+        <v>843.4892755917504</v>
       </c>
     </row>
     <row r="6">
@@ -4622,31 +4622,31 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C6" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D6" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E6" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F6" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G6" t="n">
-        <v>133.2608899736455</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H6" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J6" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K6" t="n">
         <v>497.5713418949007</v>
@@ -4655,19 +4655,19 @@
         <v>1014.414276561226</v>
       </c>
       <c r="M6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="N6" t="n">
-        <v>1531.257211227551</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="O6" t="n">
-        <v>2048.100145893876</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4679,19 +4679,19 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U6" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V6" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W6" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X6" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y6" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="7">
@@ -4701,34 +4701,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C7" t="n">
-        <v>960.0055634924552</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D7" t="n">
-        <v>800.5109188153651</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E7" t="n">
-        <v>639.6001036836846</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F7" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G7" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J7" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K7" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L7" t="n">
         <v>470.2970630371111</v>
@@ -4752,25 +4752,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S7" t="n">
-        <v>1299.499495805762</v>
+        <v>1355.411243798696</v>
       </c>
       <c r="T7" t="n">
-        <v>1059.950756782464</v>
+        <v>1115.862504775398</v>
       </c>
       <c r="U7" t="n">
-        <v>1059.950756782464</v>
+        <v>833.0643573215223</v>
       </c>
       <c r="V7" t="n">
-        <v>1059.950756782464</v>
+        <v>559.1786122610442</v>
       </c>
       <c r="W7" t="n">
-        <v>1059.950756782464</v>
+        <v>280.1089477699186</v>
       </c>
       <c r="X7" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="Y7" t="n">
-        <v>1059.950756782464</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1270.693821706375</v>
+        <v>451.8896763163319</v>
       </c>
       <c r="C8" t="n">
-        <v>860.5692310196448</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D8" t="n">
-        <v>456.1053011127053</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L8" t="n">
         <v>1329.636426430007</v>
       </c>
       <c r="M8" t="n">
-        <v>1530.854701124212</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N8" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S8" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U8" t="n">
-        <v>2030.752556034384</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V8" t="n">
-        <v>1680.915001370864</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W8" t="n">
-        <v>1680.915001370864</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X8" t="n">
-        <v>1680.915001370864</v>
+        <v>723.2252779860053</v>
       </c>
       <c r="Y8" t="n">
-        <v>1680.915001370864</v>
+        <v>723.2252779860053</v>
       </c>
     </row>
     <row r="9">
@@ -4859,28 +4859,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G9" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I9" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
         <v>234.5779431922353</v>
@@ -4889,22 +4889,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M9" t="n">
-        <v>1207.227134123859</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N9" t="n">
-        <v>1708.850297433488</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O9" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P9" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q9" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="10">
@@ -4938,34 +4938,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1131.098935930739</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="C10" t="n">
-        <v>960.0055634924552</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="D10" t="n">
-        <v>800.5109188153651</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="E10" t="n">
-        <v>639.6001036836846</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="F10" t="n">
-        <v>474.9689777942758</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="G10" t="n">
-        <v>307.7185867198192</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="H10" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I10" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J10" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K10" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L10" t="n">
         <v>470.2970630371111</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1485.891263925851</v>
+        <v>1384.772214130362</v>
       </c>
       <c r="T10" t="n">
-        <v>1485.891263925851</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U10" t="n">
-        <v>1485.891263925851</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V10" t="n">
-        <v>1485.891263925851</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W10" t="n">
-        <v>1485.891263925851</v>
+        <v>309.4699181015847</v>
       </c>
       <c r="X10" t="n">
-        <v>1485.891263925851</v>
+        <v>71.12605596126804</v>
       </c>
       <c r="Y10" t="n">
-        <v>1318.798642324783</v>
+        <v>71.12605596126804</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>856.3536062232714</v>
+        <v>1198.766126021982</v>
       </c>
       <c r="C11" t="n">
-        <v>446.2290155365415</v>
+        <v>1198.766126021982</v>
       </c>
       <c r="D11" t="n">
-        <v>41.76508562960203</v>
+        <v>1198.766126021982</v>
       </c>
       <c r="E11" t="n">
-        <v>41.76508562960203</v>
+        <v>1198.766126021982</v>
       </c>
       <c r="F11" t="n">
-        <v>41.76508562960203</v>
+        <v>777.7357139756693</v>
       </c>
       <c r="G11" t="n">
-        <v>41.76508562960203</v>
+        <v>369.0074298685015</v>
       </c>
       <c r="H11" t="n">
-        <v>41.76508562960203</v>
+        <v>58.0989324962195</v>
       </c>
       <c r="I11" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J11" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K11" t="n">
-        <v>558.6080202959272</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L11" t="n">
-        <v>558.6080202959272</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="M11" t="n">
-        <v>692.8507596625946</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N11" t="n">
-        <v>692.8507596625946</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O11" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P11" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q11" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R11" t="n">
         <v>2088.254281480102</v>
@@ -5071,22 +5071,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T11" t="n">
-        <v>2068.154856770718</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U11" t="n">
-        <v>2068.154856770718</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V11" t="n">
-        <v>2068.154856770718</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W11" t="n">
-        <v>2068.154856770718</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X11" t="n">
-        <v>1667.511458939671</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="Y11" t="n">
-        <v>1266.574785887761</v>
+        <v>1608.987305686471</v>
       </c>
     </row>
     <row r="12">
@@ -5096,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C12" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650823</v>
       </c>
       <c r="D12" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E12" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F12" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593073</v>
       </c>
       <c r="G12" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H12" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936201</v>
       </c>
       <c r="I12" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J12" t="n">
         <v>234.5779431922353</v>
@@ -5126,19 +5126,19 @@
         <v>234.5779431922353</v>
       </c>
       <c r="L12" t="n">
-        <v>234.5779431922353</v>
+        <v>751.4208778585605</v>
       </c>
       <c r="M12" t="n">
-        <v>751.4208778585605</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="N12" t="n">
         <v>1268.263812524886</v>
       </c>
       <c r="O12" t="n">
-        <v>1541.851827451147</v>
+        <v>1268.263812524886</v>
       </c>
       <c r="P12" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q12" t="n">
         <v>2058.694762117472</v>
@@ -5156,16 +5156,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V12" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W12" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X12" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y12" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="13">
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I13" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J13" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K13" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L13" t="n">
         <v>470.2970630371111</v>
@@ -5223,28 +5223,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R13" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S13" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T13" t="n">
-        <v>1059.950756782464</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U13" t="n">
-        <v>777.1526093285881</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V13" t="n">
-        <v>503.2668642681101</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W13" t="n">
-        <v>224.1971997769844</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X13" t="n">
-        <v>41.76508562960203</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y13" t="n">
-        <v>41.76508562960203</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1678.033101815612</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="C14" t="n">
-        <v>1267.908511128882</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="D14" t="n">
-        <v>1267.908511128882</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="E14" t="n">
-        <v>853.568295645779</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F14" t="n">
-        <v>450.4933697367699</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J14" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K14" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L14" t="n">
-        <v>497.1688317915614</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M14" t="n">
-        <v>1014.011766457887</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N14" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q14" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R14" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S14" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T14" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U14" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V14" t="n">
-        <v>2088.254281480102</v>
+        <v>1256.776978205235</v>
       </c>
       <c r="W14" t="n">
-        <v>2088.254281480102</v>
+        <v>873.0166773404039</v>
       </c>
       <c r="X14" t="n">
-        <v>2088.254281480102</v>
+        <v>873.0166773404039</v>
       </c>
       <c r="Y14" t="n">
-        <v>2088.254281480102</v>
+        <v>873.0166773404039</v>
       </c>
     </row>
     <row r="15">
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>720.5959275161362</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C15" t="n">
-        <v>586.6008562650818</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D15" t="n">
-        <v>469.7036984844742</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E15" t="n">
-        <v>349.2108824768022</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F15" t="n">
-        <v>240.2510026593068</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G15" t="n">
-        <v>133.2608899736455</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H15" t="n">
-        <v>62.51367700936156</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I15" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J15" t="n">
         <v>234.5779431922353</v>
@@ -5363,22 +5363,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L15" t="n">
-        <v>690.384199457534</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M15" t="n">
-        <v>1192.007362767163</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N15" t="n">
-        <v>1192.007362767163</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="O15" t="n">
-        <v>1708.850297433488</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="P15" t="n">
-        <v>1708.850297433488</v>
+        <v>1738.409816796118</v>
       </c>
       <c r="Q15" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R15" t="n">
         <v>2088.254281480102</v>
@@ -5390,7 +5390,7 @@
         <v>1820.922407781419</v>
       </c>
       <c r="U15" t="n">
-        <v>1623.571596919637</v>
+        <v>1623.571596919638</v>
       </c>
       <c r="V15" t="n">
         <v>1409.860069912671</v>
@@ -5402,7 +5402,7 @@
         <v>1020.300919787893</v>
       </c>
       <c r="Y15" t="n">
-        <v>860.8989601517228</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J16" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K16" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L16" t="n">
         <v>470.2970630371111</v>
@@ -5463,25 +5463,25 @@
         <v>1485.891263925851</v>
       </c>
       <c r="S16" t="n">
-        <v>1299.499495805762</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T16" t="n">
-        <v>1059.950756782464</v>
+        <v>1246.342524902554</v>
       </c>
       <c r="U16" t="n">
-        <v>777.1526093285881</v>
+        <v>963.5443774486778</v>
       </c>
       <c r="V16" t="n">
-        <v>503.2668642681101</v>
+        <v>689.6586323881997</v>
       </c>
       <c r="W16" t="n">
-        <v>224.1971997769844</v>
+        <v>410.5889678970741</v>
       </c>
       <c r="X16" t="n">
-        <v>41.76508562960203</v>
+        <v>172.2451057567575</v>
       </c>
       <c r="Y16" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="17">
@@ -5491,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>41.76508562960203</v>
+        <v>1274.958175906603</v>
       </c>
       <c r="C17" t="n">
-        <v>41.76508562960203</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="D17" t="n">
-        <v>41.76508562960203</v>
+        <v>864.8335852198732</v>
       </c>
       <c r="E17" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="F17" t="n">
-        <v>41.76508562960203</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J17" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K17" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L17" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M17" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N17" t="n">
-        <v>2047.697635790537</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O17" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q17" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R17" t="n">
         <v>2088.254281480102</v>
@@ -5545,22 +5545,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T17" t="n">
-        <v>1866.047797426961</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="U17" t="n">
-        <v>1866.047797426961</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="V17" t="n">
-        <v>1516.210242763441</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="W17" t="n">
-        <v>1132.44994189861</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="X17" t="n">
-        <v>731.8065440675625</v>
+        <v>1831.193789739612</v>
       </c>
       <c r="Y17" t="n">
-        <v>330.8698710156526</v>
+        <v>1685.179355571093</v>
       </c>
     </row>
     <row r="18">
@@ -5570,28 +5570,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C18" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D18" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E18" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F18" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G18" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H18" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I18" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J18" t="n">
         <v>234.5779431922353</v>
@@ -5600,10 +5600,10 @@
         <v>690.384199457534</v>
       </c>
       <c r="L18" t="n">
-        <v>1054.568412147451</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M18" t="n">
-        <v>1571.411346813777</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N18" t="n">
         <v>2088.254281480102</v>
@@ -5630,16 +5630,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V18" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W18" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X18" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y18" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="19">
@@ -5649,34 +5649,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>694.0520624022379</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="C19" t="n">
-        <v>694.0520624022379</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="D19" t="n">
-        <v>534.5574177251478</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="E19" t="n">
-        <v>373.6466025934674</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F19" t="n">
-        <v>209.0154767040586</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G19" t="n">
-        <v>41.76508562960203</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J19" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K19" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L19" t="n">
         <v>470.2970630371111</v>
@@ -5700,25 +5700,25 @@
         <v>1571.163982250452</v>
       </c>
       <c r="S19" t="n">
-        <v>1489.079817056908</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T19" t="n">
-        <v>1489.079817056908</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U19" t="n">
-        <v>1206.281669603032</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V19" t="n">
-        <v>932.3959245425544</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W19" t="n">
-        <v>932.3959245425544</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="X19" t="n">
-        <v>694.0520624022379</v>
+        <v>747.9897563992461</v>
       </c>
       <c r="Y19" t="n">
-        <v>694.0520624022379</v>
+        <v>523.2540577880108</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>696.9525363802138</v>
+        <v>1320.545542556572</v>
       </c>
       <c r="C20" t="n">
-        <v>696.9525363802138</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="D20" t="n">
-        <v>696.9525363802138</v>
+        <v>910.4209518698425</v>
       </c>
       <c r="E20" t="n">
-        <v>696.9525363802138</v>
+        <v>496.0807363867392</v>
       </c>
       <c r="F20" t="n">
-        <v>696.9525363802138</v>
+        <v>75.05032434042676</v>
       </c>
       <c r="G20" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J20" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K20" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L20" t="n">
-        <v>558.6080202959272</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M20" t="n">
-        <v>1075.450954962252</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="N20" t="n">
-        <v>1250.250340018485</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O20" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P20" t="n">
-        <v>1767.09327468481</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q20" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R20" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S20" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T20" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U20" t="n">
-        <v>1831.193789739612</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="V20" t="n">
-        <v>1481.356235076093</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="W20" t="n">
-        <v>1097.595934211261</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="X20" t="n">
-        <v>696.9525363802138</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="Y20" t="n">
-        <v>696.9525363802138</v>
+        <v>1730.766722221062</v>
       </c>
     </row>
     <row r="21">
@@ -5807,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C21" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D21" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E21" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F21" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G21" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H21" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I21" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J21" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K21" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L21" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M21" t="n">
-        <v>558.6080202959272</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N21" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O21" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P21" t="n">
         <v>2088.254281480102</v>
@@ -5867,16 +5867,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V21" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W21" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X21" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y21" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="22">
@@ -5886,34 +5886,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1131.098935930739</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="C22" t="n">
-        <v>960.0055634924552</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="D22" t="n">
-        <v>800.5109188153651</v>
+        <v>367.3070266506913</v>
       </c>
       <c r="E22" t="n">
-        <v>639.6001036836846</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F22" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G22" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H22" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J22" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K22" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L22" t="n">
         <v>470.2970630371111</v>
@@ -5940,22 +5940,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T22" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U22" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V22" t="n">
-        <v>1571.163982250452</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="W22" t="n">
-        <v>1571.163982250452</v>
+        <v>769.7474312821525</v>
       </c>
       <c r="X22" t="n">
-        <v>1543.534340936018</v>
+        <v>531.403569141836</v>
       </c>
       <c r="Y22" t="n">
-        <v>1318.798642324783</v>
+        <v>367.3070266506913</v>
       </c>
     </row>
     <row r="23">
@@ -5965,49 +5965,49 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1182.432279155364</v>
+        <v>1678.033101815613</v>
       </c>
       <c r="C23" t="n">
-        <v>1182.432279155364</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="D23" t="n">
-        <v>1182.432279155364</v>
+        <v>1267.908511128883</v>
       </c>
       <c r="E23" t="n">
-        <v>1182.432279155364</v>
+        <v>853.5682956457795</v>
       </c>
       <c r="F23" t="n">
-        <v>761.4018671090519</v>
+        <v>432.537883599467</v>
       </c>
       <c r="G23" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I23" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J23" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K23" t="n">
-        <v>812.7934917636815</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L23" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M23" t="n">
-        <v>1014.011766457887</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="N23" t="n">
-        <v>1014.011766457887</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="O23" t="n">
-        <v>1530.854701124212</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="P23" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q23" t="n">
         <v>2047.697635790537</v>
@@ -6025,16 +6025,16 @@
         <v>2088.254281480102</v>
       </c>
       <c r="V23" t="n">
-        <v>1976.413759684685</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="W23" t="n">
-        <v>1592.653458819854</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="X23" t="n">
-        <v>1592.653458819854</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Y23" t="n">
-        <v>1592.653458819854</v>
+        <v>2088.254281480102</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I24" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J24" t="n">
-        <v>41.76508562960204</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K24" t="n">
-        <v>41.76508562960204</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L24" t="n">
-        <v>41.76508562960204</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M24" t="n">
-        <v>558.6080202959272</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N24" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O24" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P24" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q24" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R24" t="n">
         <v>2088.254281480102</v>
@@ -6123,34 +6123,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>84.63115809937611</v>
+        <v>536.9842286343843</v>
       </c>
       <c r="C25" t="n">
-        <v>41.76508562960203</v>
+        <v>365.8908561961008</v>
       </c>
       <c r="D25" t="n">
-        <v>41.76508562960203</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="E25" t="n">
-        <v>41.76508562960203</v>
+        <v>206.3962115190108</v>
       </c>
       <c r="F25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J25" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K25" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L25" t="n">
         <v>470.2970630371111</v>
@@ -6171,28 +6171,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R25" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S25" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="T25" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="U25" t="n">
-        <v>1288.365834796576</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="V25" t="n">
-        <v>1014.480089736098</v>
+        <v>1279.133453877062</v>
       </c>
       <c r="W25" t="n">
-        <v>735.4104252449724</v>
+        <v>1000.063789385936</v>
       </c>
       <c r="X25" t="n">
-        <v>497.0665631046558</v>
+        <v>761.7199272456196</v>
       </c>
       <c r="Y25" t="n">
-        <v>272.3308644934205</v>
+        <v>536.9842286343843</v>
       </c>
     </row>
     <row r="26">
@@ -6202,52 +6202,52 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1596.772494638468</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="C26" t="n">
-        <v>1596.772494638468</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="D26" t="n">
-        <v>1596.772494638468</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="E26" t="n">
-        <v>1182.432279155364</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="F26" t="n">
-        <v>761.4018671090519</v>
+        <v>437.4759411455921</v>
       </c>
       <c r="G26" t="n">
-        <v>352.673583001884</v>
+        <v>437.4759411455921</v>
       </c>
       <c r="H26" t="n">
-        <v>41.76508562960203</v>
+        <v>126.5674437733101</v>
       </c>
       <c r="I26" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J26" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K26" t="n">
-        <v>41.76508562960203</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L26" t="n">
-        <v>176.0078249962694</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M26" t="n">
-        <v>692.8507596625946</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N26" t="n">
-        <v>692.8507596625946</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O26" t="n">
-        <v>1209.69369432892</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P26" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q26" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R26" t="n">
         <v>2088.254281480102</v>
@@ -6256,22 +6256,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T26" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U26" t="n">
-        <v>1831.193789739612</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V26" t="n">
-        <v>1596.772494638468</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W26" t="n">
-        <v>1596.772494638468</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="X26" t="n">
-        <v>1596.772494638468</v>
+        <v>858.5063531919045</v>
       </c>
       <c r="Y26" t="n">
-        <v>1596.772494638468</v>
+        <v>858.5063531919045</v>
       </c>
     </row>
     <row r="27">
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C27" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D27" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E27" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F27" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G27" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H27" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76508562960204</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J27" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K27" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L27" t="n">
-        <v>751.4208778585605</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M27" t="n">
-        <v>1268.263812524886</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N27" t="n">
-        <v>1268.263812524886</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O27" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q27" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R27" t="n">
         <v>2088.254281480102</v>
@@ -6341,16 +6341,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V27" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W27" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X27" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y27" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="28">
@@ -6360,34 +6360,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>819.3856360263594</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C28" t="n">
-        <v>648.2922635880759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D28" t="n">
-        <v>488.7976189109859</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E28" t="n">
-        <v>488.7976189109859</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F28" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G28" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H28" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J28" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K28" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L28" t="n">
         <v>470.2970630371111</v>
@@ -6417,19 +6417,19 @@
         <v>1331.615243227154</v>
       </c>
       <c r="U28" t="n">
-        <v>1331.615243227154</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V28" t="n">
-        <v>1057.729498166676</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W28" t="n">
-        <v>1057.729498166676</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X28" t="n">
-        <v>819.3856360263594</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y28" t="n">
-        <v>819.3856360263594</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="29">
@@ -6439,13 +6439,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1695.988587952916</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="C29" t="n">
-        <v>1285.863997266186</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="D29" t="n">
-        <v>1285.863997266186</v>
+        <v>1069.242300573633</v>
       </c>
       <c r="E29" t="n">
         <v>871.5237817830823</v>
@@ -6454,31 +6454,31 @@
         <v>450.4933697367699</v>
       </c>
       <c r="G29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J29" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K29" t="n">
-        <v>812.7934917636815</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.568412147451</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M29" t="n">
-        <v>1054.568412147451</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N29" t="n">
-        <v>1571.411346813777</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="O29" t="n">
-        <v>1571.411346813777</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P29" t="n">
         <v>2088.254281480102</v>
@@ -6490,25 +6490,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S29" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T29" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="W29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="X29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="Y29" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
     </row>
     <row r="30">
@@ -6536,28 +6536,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H30" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I30" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J30" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K30" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L30" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M30" t="n">
-        <v>558.6080202959272</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N30" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O30" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P30" t="n">
         <v>2088.254281480102</v>
@@ -6597,34 +6597,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>546.2166095538986</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C31" t="n">
-        <v>546.2166095538986</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D31" t="n">
-        <v>546.2166095538986</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E31" t="n">
-        <v>546.2166095538986</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F31" t="n">
-        <v>474.9689777942758</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G31" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H31" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I31" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J31" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K31" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L31" t="n">
         <v>470.2970630371111</v>
@@ -6651,22 +6651,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T31" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U31" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V31" t="n">
-        <v>1288.365834796576</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W31" t="n">
-        <v>1009.29617030545</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X31" t="n">
-        <v>770.9523081651339</v>
+        <v>257.5178240813579</v>
       </c>
       <c r="Y31" t="n">
-        <v>546.2166095538986</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="32">
@@ -6676,10 +6676,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>762.7981736886139</v>
+        <v>722.9320027651428</v>
       </c>
       <c r="C32" t="n">
-        <v>352.673583001884</v>
+        <v>722.9320027651428</v>
       </c>
       <c r="D32" t="n">
         <v>352.673583001884</v>
@@ -6694,58 +6694,58 @@
         <v>352.673583001884</v>
       </c>
       <c r="H32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J32" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K32" t="n">
-        <v>812.7934917636815</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L32" t="n">
-        <v>812.7934917636815</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M32" t="n">
-        <v>812.7934917636815</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="N32" t="n">
-        <v>1014.011766457887</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O32" t="n">
-        <v>1530.854701124212</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q32" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R32" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S32" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T32" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U32" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V32" t="n">
-        <v>1974.599424236061</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W32" t="n">
-        <v>1974.599424236061</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X32" t="n">
-        <v>1573.956026405013</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="Y32" t="n">
-        <v>1173.019353353103</v>
+        <v>722.9320027651428</v>
       </c>
     </row>
     <row r="33">
@@ -6773,34 +6773,34 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H33" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I33" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J33" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K33" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L33" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M33" t="n">
-        <v>234.5779431922353</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N33" t="n">
-        <v>751.4208778585604</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O33" t="n">
-        <v>1192.007362767163</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P33" t="n">
-        <v>1708.850297433488</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q33" t="n">
-        <v>2058.694762117472</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R33" t="n">
         <v>2088.254281480102</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C34" t="n">
-        <v>1477.095862722104</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D34" t="n">
-        <v>1317.601218045014</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E34" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F34" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G34" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H34" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I34" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J34" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K34" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L34" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M34" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N34" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O34" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P34" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S34" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T34" t="n">
-        <v>2088.254281480102</v>
+        <v>1528.297909780678</v>
       </c>
       <c r="U34" t="n">
-        <v>2088.254281480102</v>
+        <v>1245.499762326802</v>
       </c>
       <c r="V34" t="n">
-        <v>1814.368536419624</v>
+        <v>971.614017266324</v>
       </c>
       <c r="W34" t="n">
-        <v>1814.368536419624</v>
+        <v>692.5443527751984</v>
       </c>
       <c r="X34" t="n">
-        <v>1814.368536419624</v>
+        <v>454.2004906348818</v>
       </c>
       <c r="Y34" t="n">
-        <v>1814.368536419624</v>
+        <v>229.4647920236465</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1678.033101815612</v>
+        <v>352.673583001884</v>
       </c>
       <c r="C35" t="n">
-        <v>1267.908511128882</v>
+        <v>352.673583001884</v>
       </c>
       <c r="D35" t="n">
-        <v>1267.908511128882</v>
+        <v>352.673583001884</v>
       </c>
       <c r="E35" t="n">
-        <v>853.568295645779</v>
+        <v>352.673583001884</v>
       </c>
       <c r="F35" t="n">
-        <v>432.5378835994666</v>
+        <v>352.673583001884</v>
       </c>
       <c r="G35" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J35" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K35" t="n">
-        <v>812.7934917636815</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L35" t="n">
-        <v>812.7934917636815</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M35" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="N35" t="n">
-        <v>1014.011766457887</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="O35" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P35" t="n">
-        <v>2047.697635790537</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q35" t="n">
         <v>2047.697635790537</v>
@@ -6964,25 +6964,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S35" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T35" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U35" t="n">
-        <v>2088.254281480102</v>
+        <v>1486.914836361282</v>
       </c>
       <c r="V35" t="n">
-        <v>2088.254281480102</v>
+        <v>1137.077281697763</v>
       </c>
       <c r="W35" t="n">
-        <v>2088.254281480102</v>
+        <v>753.3169808329314</v>
       </c>
       <c r="X35" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
       <c r="Y35" t="n">
-        <v>2088.254281480102</v>
+        <v>352.673583001884</v>
       </c>
     </row>
     <row r="36">
@@ -7010,28 +7010,28 @@
         <v>133.2608899736458</v>
       </c>
       <c r="H36" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I36" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J36" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K36" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L36" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M36" t="n">
-        <v>558.6080202959272</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N36" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O36" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P36" t="n">
         <v>2088.254281480102</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1648.189235160388</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C37" t="n">
-        <v>1477.095862722104</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D37" t="n">
-        <v>1317.601218045014</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E37" t="n">
-        <v>1156.690402913334</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F37" t="n">
-        <v>992.0592770239252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G37" t="n">
-        <v>824.8088859494686</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H37" t="n">
-        <v>675.2014307549252</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I37" t="n">
-        <v>558.8553848592514</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J37" t="n">
-        <v>572.937934264462</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K37" t="n">
-        <v>727.4902619867</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L37" t="n">
-        <v>987.3873622667606</v>
+        <v>470.2970630371111</v>
       </c>
       <c r="M37" t="n">
-        <v>1276.651418707254</v>
+        <v>759.5611194776044</v>
       </c>
       <c r="N37" t="n">
-        <v>1557.490201101504</v>
+        <v>1040.399901871855</v>
       </c>
       <c r="O37" t="n">
-        <v>1817.050811427978</v>
+        <v>1299.960512198329</v>
       </c>
       <c r="P37" t="n">
-        <v>2022.726251677591</v>
+        <v>1505.635952447941</v>
       </c>
       <c r="Q37" t="n">
-        <v>2088.254281480102</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="R37" t="n">
-        <v>2002.981563155501</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S37" t="n">
-        <v>1835.888941554432</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T37" t="n">
-        <v>1835.888941554432</v>
+        <v>1340.598203386633</v>
       </c>
       <c r="U37" t="n">
-        <v>1835.888941554432</v>
+        <v>1057.800055932758</v>
       </c>
       <c r="V37" t="n">
-        <v>1835.888941554432</v>
+        <v>783.9143108722797</v>
       </c>
       <c r="W37" t="n">
-        <v>1835.888941554432</v>
+        <v>504.844646381154</v>
       </c>
       <c r="X37" t="n">
-        <v>1835.888941554432</v>
+        <v>266.5007842408373</v>
       </c>
       <c r="Y37" t="n">
-        <v>1835.888941554432</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>41.76508562960203</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="C38" t="n">
-        <v>41.76508562960203</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="D38" t="n">
-        <v>41.76508562960203</v>
+        <v>877.1357131590178</v>
       </c>
       <c r="E38" t="n">
-        <v>41.76508562960203</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J38" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K38" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L38" t="n">
-        <v>1075.450954962252</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="M38" t="n">
-        <v>1592.293889628578</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="N38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q38" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R38" t="n">
         <v>2088.254281480102</v>
@@ -7204,22 +7204,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T38" t="n">
-        <v>1730.766722221061</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U38" t="n">
         <v>1473.706230480572</v>
       </c>
       <c r="V38" t="n">
-        <v>1123.868675817052</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="W38" t="n">
-        <v>740.1083749522209</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="X38" t="n">
-        <v>339.4649771211734</v>
+        <v>1287.356892823507</v>
       </c>
       <c r="Y38" t="n">
-        <v>41.76508562960203</v>
+        <v>1287.356892823507</v>
       </c>
     </row>
     <row r="39">
@@ -7229,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C39" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D39" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E39" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F39" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G39" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H39" t="n">
-        <v>62.51367700936187</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I39" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J39" t="n">
         <v>234.5779431922353</v>
       </c>
       <c r="K39" t="n">
-        <v>234.5779431922353</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L39" t="n">
-        <v>234.5779431922353</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M39" t="n">
-        <v>751.4208778585604</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N39" t="n">
-        <v>1268.263812524885</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O39" t="n">
-        <v>1785.106747191211</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P39" t="n">
         <v>2088.254281480102</v>
@@ -7289,16 +7289,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V39" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W39" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X39" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y39" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="40">
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1014.480089736098</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="C40" t="n">
-        <v>960.0055634924552</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="D40" t="n">
-        <v>800.5109188153651</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="E40" t="n">
-        <v>639.6001036836846</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="F40" t="n">
-        <v>474.9689777942758</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="G40" t="n">
-        <v>307.7185867198192</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H40" t="n">
         <v>158.1111315252759</v>
       </c>
       <c r="I40" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J40" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K40" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L40" t="n">
         <v>470.2970630371111</v>
@@ -7362,22 +7362,22 @@
         <v>1571.163982250452</v>
       </c>
       <c r="T40" t="n">
-        <v>1571.163982250452</v>
+        <v>1331.615243227154</v>
       </c>
       <c r="U40" t="n">
-        <v>1288.365834796576</v>
+        <v>1048.817095773278</v>
       </c>
       <c r="V40" t="n">
-        <v>1014.480089736098</v>
+        <v>774.9313507128002</v>
       </c>
       <c r="W40" t="n">
-        <v>1014.480089736098</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="X40" t="n">
-        <v>1014.480089736098</v>
+        <v>495.8616862216745</v>
       </c>
       <c r="Y40" t="n">
-        <v>1014.480089736098</v>
+        <v>307.7185867198193</v>
       </c>
     </row>
     <row r="41">
@@ -7387,52 +7387,52 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>352.673583001884</v>
+        <v>474.4527771062106</v>
       </c>
       <c r="C41" t="n">
-        <v>352.673583001884</v>
+        <v>474.4527771062106</v>
       </c>
       <c r="D41" t="n">
-        <v>352.673583001884</v>
+        <v>474.4527771062106</v>
       </c>
       <c r="E41" t="n">
-        <v>352.673583001884</v>
+        <v>462.7954976759145</v>
       </c>
       <c r="F41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G41" t="n">
-        <v>352.673583001884</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J41" t="n">
-        <v>41.76508562960203</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K41" t="n">
-        <v>558.6080202959272</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L41" t="n">
-        <v>558.6080202959272</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M41" t="n">
-        <v>1075.450954962252</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N41" t="n">
-        <v>1530.854701124212</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O41" t="n">
-        <v>1530.854701124212</v>
+        <v>1329.636426430007</v>
       </c>
       <c r="P41" t="n">
-        <v>2047.697635790537</v>
+        <v>1846.479361096332</v>
       </c>
       <c r="Q41" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R41" t="n">
         <v>2088.254281480102</v>
@@ -7441,22 +7441,22 @@
         <v>2088.254281480102</v>
       </c>
       <c r="T41" t="n">
-        <v>2088.254281480102</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U41" t="n">
-        <v>2088.254281480102</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V41" t="n">
-        <v>1738.416726816582</v>
+        <v>1259.149751022952</v>
       </c>
       <c r="W41" t="n">
-        <v>1354.656425951751</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="X41" t="n">
-        <v>954.0130281207037</v>
+        <v>875.3894501581206</v>
       </c>
       <c r="Y41" t="n">
-        <v>553.0763550687938</v>
+        <v>474.4527771062106</v>
       </c>
     </row>
     <row r="42">
@@ -7466,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>720.5959275161365</v>
+        <v>720.5959275161366</v>
       </c>
       <c r="C42" t="n">
-        <v>586.6008562650821</v>
+        <v>586.6008562650824</v>
       </c>
       <c r="D42" t="n">
-        <v>469.7036984844746</v>
+        <v>469.7036984844747</v>
       </c>
       <c r="E42" t="n">
-        <v>349.2108824768026</v>
+        <v>349.2108824768027</v>
       </c>
       <c r="F42" t="n">
-        <v>240.2510026593071</v>
+        <v>240.2510026593072</v>
       </c>
       <c r="G42" t="n">
-        <v>133.2608899736458</v>
+        <v>133.260889973646</v>
       </c>
       <c r="H42" t="n">
-        <v>62.51367700936186</v>
+        <v>62.51367700936203</v>
       </c>
       <c r="I42" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J42" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K42" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L42" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M42" t="n">
-        <v>558.6080202959272</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N42" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O42" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P42" t="n">
         <v>2088.254281480102</v>
@@ -7526,16 +7526,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V42" t="n">
-        <v>1409.860069912671</v>
+        <v>1409.860069912672</v>
       </c>
       <c r="W42" t="n">
-        <v>1196.626901649</v>
+        <v>1196.626901649001</v>
       </c>
       <c r="X42" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y42" t="n">
-        <v>860.8989601517231</v>
+        <v>860.8989601517233</v>
       </c>
     </row>
     <row r="43">
@@ -7545,34 +7545,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1131.098935930739</v>
+        <v>541.0196642740227</v>
       </c>
       <c r="C43" t="n">
-        <v>960.0055634924552</v>
+        <v>369.9262918357392</v>
       </c>
       <c r="D43" t="n">
-        <v>800.5109188153651</v>
+        <v>369.9262918357392</v>
       </c>
       <c r="E43" t="n">
-        <v>639.6001036836846</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="F43" t="n">
-        <v>474.9689777942758</v>
+        <v>209.0154767040586</v>
       </c>
       <c r="G43" t="n">
-        <v>307.7185867198192</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H43" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I43" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J43" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K43" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L43" t="n">
         <v>470.2970630371111</v>
@@ -7593,28 +7593,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R43" t="n">
-        <v>1571.163982250452</v>
+        <v>1485.891263925851</v>
       </c>
       <c r="S43" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="T43" t="n">
-        <v>1571.163982250452</v>
+        <v>1299.499495805762</v>
       </c>
       <c r="U43" t="n">
-        <v>1571.163982250452</v>
+        <v>1016.701348351886</v>
       </c>
       <c r="V43" t="n">
-        <v>1571.163982250452</v>
+        <v>953.4550692793024</v>
       </c>
       <c r="W43" t="n">
-        <v>1571.163982250452</v>
+        <v>953.4550692793024</v>
       </c>
       <c r="X43" t="n">
-        <v>1543.534340936018</v>
+        <v>953.4550692793024</v>
       </c>
       <c r="Y43" t="n">
-        <v>1318.798642324783</v>
+        <v>728.7193706680671</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>41.76508562960203</v>
+        <v>807.4072348035139</v>
       </c>
       <c r="C44" t="n">
-        <v>41.76508562960203</v>
+        <v>807.4072348035139</v>
       </c>
       <c r="D44" t="n">
-        <v>41.76508562960203</v>
+        <v>807.4072348035139</v>
       </c>
       <c r="E44" t="n">
-        <v>41.76508562960203</v>
+        <v>807.4072348035139</v>
       </c>
       <c r="F44" t="n">
-        <v>41.76508562960203</v>
+        <v>386.3768227572015</v>
       </c>
       <c r="G44" t="n">
-        <v>41.76508562960203</v>
+        <v>352.673583001884</v>
       </c>
       <c r="H44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J44" t="n">
         <v>295.9505570973564</v>
       </c>
       <c r="K44" t="n">
-        <v>812.7934917636815</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L44" t="n">
-        <v>1329.636426430007</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M44" t="n">
-        <v>1846.479361096332</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="N44" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="O44" t="n">
-        <v>2088.254281480102</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P44" t="n">
-        <v>2088.254281480102</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q44" t="n">
         <v>2088.254281480102</v>
@@ -7675,25 +7675,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S44" t="n">
-        <v>1952.973206274203</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="T44" t="n">
-        <v>1834.0035037814</v>
+        <v>1866.047797426961</v>
       </c>
       <c r="U44" t="n">
-        <v>1576.94301204091</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="V44" t="n">
-        <v>1227.105457377391</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="W44" t="n">
-        <v>843.3451565125595</v>
+        <v>1608.987305686471</v>
       </c>
       <c r="X44" t="n">
-        <v>442.7017586815119</v>
+        <v>1208.343907855424</v>
       </c>
       <c r="Y44" t="n">
-        <v>41.76508562960203</v>
+        <v>807.4072348035139</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>62.51367700936187</v>
       </c>
       <c r="I45" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J45" t="n">
-        <v>41.76508562960203</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K45" t="n">
-        <v>41.76508562960203</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L45" t="n">
-        <v>41.76508562960203</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="M45" t="n">
-        <v>558.6080202959272</v>
+        <v>1724.070068790184</v>
       </c>
       <c r="N45" t="n">
-        <v>1075.450954962252</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="O45" t="n">
-        <v>1592.293889628578</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P45" t="n">
-        <v>1738.409816796118</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q45" t="n">
         <v>2088.254281480102</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="C46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="J46" t="n">
-        <v>55.84763503481255</v>
+        <v>55.84763503481257</v>
       </c>
       <c r="K46" t="n">
-        <v>210.3999627570505</v>
+        <v>210.3999627570506</v>
       </c>
       <c r="L46" t="n">
         <v>470.2970630371111</v>
@@ -7851,7 +7851,7 @@
         <v>172.2451057567575</v>
       </c>
       <c r="Y46" t="n">
-        <v>41.76508562960203</v>
+        <v>41.76508562960205</v>
       </c>
     </row>
   </sheetData>
@@ -7978,28 +7978,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328703</v>
+        <v>272.0504334731806</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P2" t="n">
-        <v>337.8664545776215</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
         <v>87.31214281472352</v>
@@ -8063,22 +8063,22 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>559.8834573428703</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O3" t="n">
         <v>57.751479</v>
       </c>
       <c r="P3" t="n">
-        <v>576.3232053728292</v>
+        <v>392.2643757374379</v>
       </c>
       <c r="Q3" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8218,25 +8218,25 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>549.1401736751963</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L5" t="n">
-        <v>617.5489684328703</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270709</v>
+        <v>228.888951090043</v>
       </c>
       <c r="N5" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R5" t="n">
         <v>128.2784515920617</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M6" t="n">
-        <v>579.6278541084429</v>
+        <v>236.9512395019908</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>94.81936791818303</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8455,28 +8455,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L8" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M8" t="n">
-        <v>296.5410069764445</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O8" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8537,25 +8537,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M9" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N9" t="n">
-        <v>559.8834573428702</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
-        <v>57.751479</v>
+        <v>425.6143201009271</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8689,31 +8689,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K11" t="n">
-        <v>611.1999600432425</v>
+        <v>333.3534809699548</v>
       </c>
       <c r="L11" t="n">
         <v>95.48539806284482</v>
       </c>
       <c r="M11" t="n">
-        <v>228.8889510900428</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N11" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O11" t="n">
-        <v>615.2533459958086</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P11" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q11" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R11" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8774,22 +8774,22 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M12" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N12" t="n">
-        <v>575.2569637637754</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>334.1030092285464</v>
+        <v>57.751479</v>
       </c>
       <c r="P12" t="n">
-        <v>576.3232053728292</v>
+        <v>499.2964884458369</v>
       </c>
       <c r="Q12" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R12" t="n">
         <v>88.85829947169823</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L14" t="n">
-        <v>555.489182064824</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M14" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N14" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O14" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P14" t="n">
         <v>93.64936328088416</v>
@@ -8950,7 +8950,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R14" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9011,25 +9011,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M15" t="n">
-        <v>564.2543476875378</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N15" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>68.74422894819149</v>
       </c>
       <c r="Q15" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9166,28 +9166,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L17" t="n">
-        <v>298.7361805822439</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M17" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N17" t="n">
-        <v>614.9758611266448</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O17" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P17" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q17" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R17" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9248,13 +9248,13 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>423.9773649117757</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M18" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N18" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O18" t="n">
         <v>57.751479</v>
@@ -9400,22 +9400,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K20" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L20" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M20" t="n">
-        <v>615.3537948270709</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N20" t="n">
-        <v>269.477326166955</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O20" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P20" t="n">
         <v>93.64936328088416</v>
@@ -9424,7 +9424,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R20" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9479,25 +9479,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M21" t="n">
-        <v>579.6278541084429</v>
+        <v>425.4271248393445</v>
       </c>
       <c r="N21" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O21" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q21" t="n">
         <v>56.69261850483872</v>
@@ -9640,25 +9640,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K23" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L23" t="n">
-        <v>298.7361805822439</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M23" t="n">
-        <v>93.29022445704545</v>
+        <v>494.1995199774884</v>
       </c>
       <c r="N23" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O23" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P23" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q23" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R23" t="n">
         <v>128.2784515920617</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M24" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N24" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O24" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P24" t="n">
-        <v>525.3716274158282</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q24" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R24" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K26" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L26" t="n">
-        <v>231.0841246958421</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M26" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N26" t="n">
-        <v>92.91229075661933</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O26" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P26" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q26" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,28 +9956,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>578.1780941808745</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M27" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N27" t="n">
-        <v>53.19339339374999</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O27" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P27" t="n">
-        <v>330.6111652313501</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q27" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R27" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,22 +10114,22 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L29" t="n">
-        <v>339.7024893595822</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M29" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N29" t="n">
-        <v>614.9758611266448</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O29" t="n">
-        <v>93.18977562578313</v>
+        <v>337.4068669225207</v>
       </c>
       <c r="P29" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q29" t="n">
         <v>90.03380439915205</v>
@@ -10190,25 +10190,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M30" t="n">
-        <v>579.6278541084429</v>
+        <v>425.427124839344</v>
       </c>
       <c r="N30" t="n">
-        <v>575.2569637637754</v>
+        <v>575.2569637637755</v>
       </c>
       <c r="O30" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P30" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q30" t="n">
         <v>56.69261850483872</v>
@@ -10351,28 +10351,28 @@
         <v>330.076592815888</v>
       </c>
       <c r="K32" t="n">
-        <v>611.1999600432425</v>
+        <v>333.3534809699548</v>
       </c>
       <c r="L32" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M32" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N32" t="n">
-        <v>296.1630732760184</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O32" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P32" t="n">
-        <v>615.7129336509096</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q32" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10430,28 +10430,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M33" t="n">
-        <v>57.56428373841742</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N33" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O33" t="n">
-        <v>502.7883324430331</v>
+        <v>57.751479</v>
       </c>
       <c r="P33" t="n">
-        <v>576.3232053728292</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q33" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R33" t="n">
-        <v>88.85829947169823</v>
+        <v>59.00019910540541</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,25 +10588,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L35" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M35" t="n">
-        <v>296.5410069764445</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N35" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O35" t="n">
-        <v>615.2533459958086</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P35" t="n">
-        <v>615.7129336509096</v>
+        <v>494.5586588013271</v>
       </c>
       <c r="Q35" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
         <v>128.2784515920617</v>
@@ -10664,25 +10664,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M36" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N36" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O36" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P36" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q36" t="n">
         <v>56.69261850483872</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K38" t="n">
-        <v>611.1999600432425</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L38" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M38" t="n">
-        <v>615.3537948270709</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N38" t="n">
-        <v>552.9160747585985</v>
+        <v>337.1293820533569</v>
       </c>
       <c r="O38" t="n">
         <v>93.18977562578313</v>
@@ -10846,7 +10846,7 @@
         <v>90.03380439915205</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10904,22 +10904,22 @@
         <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M39" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N39" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O39" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P39" t="n">
-        <v>360.4692655976433</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q39" t="n">
         <v>56.69261850483872</v>
@@ -11059,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L41" t="n">
-        <v>95.48539806284482</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M41" t="n">
-        <v>615.3537948270709</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N41" t="n">
-        <v>552.9160747585985</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O41" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P41" t="n">
-        <v>615.7129336509096</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q41" t="n">
-        <v>90.03380439915205</v>
+        <v>334.2508956958897</v>
       </c>
       <c r="R41" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M42" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N42" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946771</v>
       </c>
       <c r="O42" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P42" t="n">
-        <v>555.2297277821212</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q42" t="n">
         <v>56.69261850483872</v>
@@ -11299,25 +11299,25 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>611.1999600432425</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L44" t="n">
-        <v>617.5489684328703</v>
+        <v>617.5489684328704</v>
       </c>
       <c r="M44" t="n">
-        <v>615.3537948270709</v>
+        <v>535.1658287548266</v>
       </c>
       <c r="N44" t="n">
-        <v>337.1293820533567</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O44" t="n">
         <v>93.18977562578313</v>
       </c>
       <c r="P44" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q44" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
         <v>87.31214281472352</v>
@@ -11375,28 +11375,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>56.11452381084905</v>
+        <v>578.1780941808746</v>
       </c>
       <c r="M45" t="n">
-        <v>579.6278541084429</v>
+        <v>579.627854108443</v>
       </c>
       <c r="N45" t="n">
-        <v>575.2569637637754</v>
+        <v>421.0562344946766</v>
       </c>
       <c r="O45" t="n">
-        <v>579.8150493700255</v>
+        <v>57.751479</v>
       </c>
       <c r="P45" t="n">
-        <v>201.8514806265823</v>
+        <v>54.25963500280375</v>
       </c>
       <c r="Q45" t="n">
-        <v>410.0708656603775</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R45" t="n">
         <v>59.00019910540541</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D2" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22567,7 +22567,7 @@
         <v>307.7994123985592</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>70.96009330680496</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22600,22 +22600,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.584269729476546</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -22704,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>18.93616071671352</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22752,28 +22752,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>157.1745055375997</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="5">
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>410.1968133282722</v>
@@ -22801,10 +22801,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22837,22 +22837,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>110.5659042089455</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>214.0948636091082</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -22944,25 +22944,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>70.43669735679198</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22992,22 +22992,22 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>55.3526305130049</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -23020,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>137.496722214868</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>416.8201079258493</v>
@@ -23071,13 +23071,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>197.563178631824</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -23086,7 +23086,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -23178,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>119.0440200142486</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23226,28 +23226,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>57.06664624006515</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="11">
@@ -23260,25 +23260,25 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>85.48824505609757</v>
+        <v>69.31773665814629</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
-        <v>200.08598875032</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -23323,10 +23323,10 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="12">
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>169.3824387139007</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>194.7158398879886</v>
       </c>
     </row>
     <row r="14">
@@ -23497,19 +23497,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>17.77593127593025</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>131.5792193643008</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23703,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23718,10 +23718,10 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>55.3526305130049</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
     <row r="17">
@@ -23731,22 +23731,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>119.9052303356545</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E17" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -23785,22 +23785,22 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>252.3730164945563</v>
       </c>
     </row>
     <row r="18">
@@ -23895,10 +23895,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>115.1825854367171</v>
@@ -23940,10 +23940,10 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>103.2645268972806</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23955,10 +23955,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>209.2882451484949</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,25 +23968,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>63.80483742154962</v>
+        <v>371.6886149423797</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -24019,22 +24019,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
         <v>396.9273063213908</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,22 +24180,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>208.6070786176243</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>60.03276455888974</v>
       </c>
     </row>
     <row r="23">
@@ -24208,22 +24208,22 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E23" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>17.77593127592979</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I23" t="n">
         <v>85.48824505609757</v>
@@ -24265,10 +24265,10 @@
         <v>254.489886823085</v>
       </c>
       <c r="V23" t="n">
-        <v>235.6170625394217</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -24363,19 +24363,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>126.9450269688243</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.577887163712</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>184.5278504388888</v>
@@ -24420,10 +24420,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>66.45665566157149</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>85.48824505609757</v>
+        <v>1.533910493826653</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24496,19 +24496,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T26" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>114.2620969667512</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X26" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>396.9273063213908</v>
@@ -24603,25 +24603,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>149.2944599249716</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24657,19 +24657,19 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="29">
@@ -24679,16 +24679,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>17.7759312759303</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D29" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>214.4554797256276</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
@@ -24730,13 +24730,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>346.3391791168841</v>
@@ -24849,16 +24849,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>92.4496591884881</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24891,13 +24891,13 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>8.89313055788466</v>
       </c>
     </row>
     <row r="32">
@@ -24916,13 +24916,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>400.41929060787</v>
+        <v>33.86345504224391</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>233.8208704452834</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,28 +25074,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>21.30520108346042</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,22 +25128,22 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T34" t="n">
-        <v>237.1532516330649</v>
+        <v>194.7158398879886</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25153,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G35" t="n">
-        <v>17.77593127593025</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H35" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>85.48824505609757</v>
@@ -25204,22 +25204,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>254.489886823085</v>
+        <v>13.07651982190308</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>396.9273063213908</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S37" t="n">
-        <v>19.10615505383041</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T37" t="n">
-        <v>237.1532516330649</v>
+        <v>8.893130557884689</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -25399,10 +25399,10 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>404.6410012660961</v>
@@ -25450,16 +25450,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>161.85333483639</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
-        <v>102.2044137447352</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="39">
@@ -25551,19 +25551,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>115.4526577326942</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T40" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,13 +25611,13 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>36.22667311828624</v>
       </c>
     </row>
     <row r="41">
@@ -25627,7 +25627,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>207.7202235216039</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
         <v>406.0233447798626</v>
@@ -25636,16 +25636,16 @@
         <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
-        <v>410.1968133282722</v>
+        <v>398.656106692279</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I41" t="n">
         <v>85.48824505609757</v>
@@ -25681,10 +25681,10 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T41" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,25 +25833,25 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>208.5330713280154</v>
       </c>
       <c r="W43" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>208.6070786176243</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,13 +25876,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>404.6410012660961</v>
+        <v>371.2747939083318</v>
       </c>
       <c r="H44" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>85.48824505609757</v>
@@ -25915,19 +25915,19 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T44" t="n">
-        <v>102.2044137447353</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>93.31312169923905</v>
+        <v>93.31312169923908</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>551751.1411397047</v>
+        <v>551751.1411397049</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>551751.1411397047</v>
+        <v>551751.1411397049</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>551751.1411397046</v>
+        <v>551751.1411397049</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>551751.1411397049</v>
+        <v>551751.1411397047</v>
       </c>
     </row>
     <row r="11">
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>114155.408511663</v>
+        <v>114155.4085116632</v>
       </c>
       <c r="C2" t="n">
         <v>114155.4085116631</v>
       </c>
       <c r="D2" t="n">
-        <v>114155.408511663</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="E2" t="n">
-        <v>114155.408511663</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="F2" t="n">
         <v>114155.4085116631</v>
@@ -26340,10 +26340,10 @@
         <v>114155.4085116631</v>
       </c>
       <c r="K2" t="n">
-        <v>114155.408511663</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="L2" t="n">
-        <v>114155.408511663</v>
+        <v>114155.4085116631</v>
       </c>
       <c r="M2" t="n">
         <v>114155.4085116631</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>174955.509893114</v>
+        <v>174955.5098931141</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.8008058949</v>
+        <v>136594.800805895</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>433.9049324434264</v>
+      </c>
+      <c r="C4" t="n">
         <v>433.9049324434263</v>
       </c>
-      <c r="C4" t="n">
-        <v>433.9049324434262</v>
-      </c>
       <c r="D4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="E4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="F4" t="n">
         <v>433.9049324434263</v>
       </c>
       <c r="G4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="H4" t="n">
         <v>433.9049324434263</v>
@@ -26441,7 +26441,7 @@
         <v>433.9049324434263</v>
       </c>
       <c r="J4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="K4" t="n">
         <v>433.9049324434263</v>
@@ -26453,7 +26453,7 @@
         <v>433.9049324434263</v>
       </c>
       <c r="N4" t="n">
-        <v>433.9049324434263</v>
+        <v>433.9049324434264</v>
       </c>
       <c r="O4" t="n">
         <v>433.9049324434263</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="C5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="D5" t="n">
-        <v>65369.06507849754</v>
+        <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
         <v>31741.46507849755</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-126603.071392392</v>
+        <v>-127280.6002517859</v>
       </c>
       <c r="C6" t="n">
-        <v>48352.43850072211</v>
+        <v>47674.90964132809</v>
       </c>
       <c r="D6" t="n">
-        <v>48352.43850072207</v>
+        <v>47674.90964132808</v>
       </c>
       <c r="E6" t="n">
-        <v>81980.03850072208</v>
+        <v>81302.50964132808</v>
       </c>
       <c r="F6" t="n">
-        <v>81980.03850072209</v>
+        <v>81302.50964132806</v>
       </c>
       <c r="G6" t="n">
-        <v>81980.03850072213</v>
+        <v>81302.50964132806</v>
       </c>
       <c r="H6" t="n">
-        <v>81980.03850072215</v>
+        <v>81302.50964132806</v>
       </c>
       <c r="I6" t="n">
-        <v>81980.03850072209</v>
+        <v>81302.50964132808</v>
       </c>
       <c r="J6" t="n">
-        <v>-54614.76230517284</v>
+        <v>-55292.29116456694</v>
       </c>
       <c r="K6" t="n">
-        <v>81980.03850072208</v>
+        <v>81302.50964132807</v>
       </c>
       <c r="L6" t="n">
-        <v>81980.03850072206</v>
+        <v>81302.50964132806</v>
       </c>
       <c r="M6" t="n">
-        <v>81980.0385007221</v>
+        <v>81302.50964132807</v>
       </c>
       <c r="N6" t="n">
-        <v>81980.0385007221</v>
+        <v>81302.50964132806</v>
       </c>
       <c r="O6" t="n">
-        <v>81980.03850072212</v>
+        <v>81302.50964132807</v>
       </c>
       <c r="P6" t="n">
-        <v>81980.0385007221</v>
+        <v>81302.5096413281</v>
       </c>
     </row>
   </sheetData>
@@ -26789,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="D4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="E4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="F4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="G4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="H4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="I4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
     </row>
   </sheetData>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>522.0635703700254</v>
+        <v>176.5650354103358</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N2" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>244.2170912967374</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34783,22 +34783,22 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>522.0635703700254</v>
+        <v>338.0047407346341</v>
       </c>
       <c r="Q3" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34938,25 +34938,25 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>522.0635703700254</v>
+        <v>135.5987266329975</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R5" t="n">
         <v>40.9663087773382</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M6" t="n">
-        <v>522.0635703700254</v>
+        <v>179.3869557635734</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>40.55973291537929</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L8" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M8" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35257,25 +35257,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N9" t="n">
-        <v>506.6900639491203</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35409,31 +35409,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K11" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967377</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O11" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P11" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35494,22 +35494,22 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M12" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N12" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>276.3515302285464</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>522.0635703700254</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R12" t="n">
         <v>29.85810036629282</v>
@@ -35646,22 +35646,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L14" t="n">
-        <v>460.0037840019792</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M14" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N14" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O14" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35670,7 +35670,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35731,25 +35731,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M15" t="n">
-        <v>506.6900639491204</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>14.48459394538775</v>
       </c>
       <c r="Q15" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35886,28 +35886,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K17" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L17" t="n">
-        <v>203.2507825193991</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35968,13 +35968,13 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>367.8628411009267</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M18" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N18" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O18" t="n">
         <v>0</v>
@@ -36120,22 +36120,22 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L20" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M20" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N20" t="n">
-        <v>176.5650354103356</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36144,7 +36144,7 @@
         <v>324.4050573689818</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M21" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="N21" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O21" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R23" t="n">
         <v>40.9663087773382</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M24" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N24" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O24" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>471.1119924130245</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L26" t="n">
-        <v>135.5987266329973</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M26" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,28 +36676,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M27" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O27" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>276.3515302285464</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,22 +36834,22 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>244.2170912967374</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N29" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="P29" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36910,25 +36910,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M30" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="N30" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O30" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K32" t="n">
-        <v>522.0635703700254</v>
+        <v>244.2170912967377</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N32" t="n">
-        <v>203.2507825193991</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37150,28 +37150,28 @@
         <v>194.760462184478</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N33" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O33" t="n">
-        <v>445.0368534430331</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>29.85810036629282</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,25 +37308,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K35" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M35" t="n">
-        <v>203.2507825193991</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>522.0635703700254</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R35" t="n">
         <v>40.9663087773382</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M36" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N36" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O36" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37542,19 +37542,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M38" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N38" t="n">
-        <v>460.0037840019792</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37624,22 +37624,22 @@
         <v>194.760462184478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M39" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N39" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O39" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>306.2096305948396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M41" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>460.0037840019792</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P41" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>244.2170912967376</v>
       </c>
       <c r="R41" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M42" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N42" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009271</v>
       </c>
       <c r="O42" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>500.9700927793174</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>256.7530014825801</v>
       </c>
       <c r="K44" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M44" t="n">
-        <v>522.0635703700254</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="N44" t="n">
-        <v>244.2170912967374</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="M45" t="n">
-        <v>522.0635703700254</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="N45" t="n">
-        <v>522.0635703700254</v>
+        <v>367.8628411009266</v>
       </c>
       <c r="O45" t="n">
-        <v>522.0635703700254</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>147.5918456237786</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>353.3782471555388</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
